--- a/etf_dfs/EIRL.xlsx
+++ b/etf_dfs/EIRL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EIRL</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>40299</v>
       </c>
@@ -456,13 +462,13 @@
         <v>20.02000045776367</v>
       </c>
       <c r="F2">
-        <v>16.49777412414551</v>
+        <v>16.49777030944824</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>40330</v>
       </c>
@@ -479,7 +485,7 @@
         <v>19.09000015258789</v>
       </c>
       <c r="F3">
-        <v>15.75791835784912</v>
+        <v>15.75791263580322</v>
       </c>
       <c r="G3">
         <v>300</v>
@@ -488,7 +494,7 @@
         <v>-0.04645356063491657</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>40360</v>
       </c>
@@ -505,7 +511,7 @@
         <v>21.04000091552734</v>
       </c>
       <c r="F4">
-        <v>17.36755180358887</v>
+        <v>17.3675537109375</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0.102147760468986</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.1050770018458491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>40391</v>
       </c>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>-0.1021863798633309</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.1056258654231365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>40422</v>
       </c>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>0.06140814636806069</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.09442720904038604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>40452</v>
       </c>
@@ -583,7 +598,7 @@
         <v>20.65999984741211</v>
       </c>
       <c r="F7">
-        <v>17.05388259887695</v>
+        <v>17.05388069152832</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0.03042397174878864</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.0826431954159554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>40483</v>
       </c>
@@ -609,7 +627,7 @@
         <v>18.77000045776367</v>
       </c>
       <c r="F8">
-        <v>15.49376678466797</v>
+        <v>15.49377155303955</v>
       </c>
       <c r="G8">
         <v>4200</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>-0.09148109407586369</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.08455139169214312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>40513</v>
       </c>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.08417687187921907</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.08463509482383361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>40544</v>
       </c>
@@ -661,7 +685,7 @@
         <v>20.5</v>
       </c>
       <c r="F10">
-        <v>17.27112770080566</v>
+        <v>17.27112579345703</v>
       </c>
       <c r="G10">
         <v>800</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.007370988487393815</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.07835986554266566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>40575</v>
       </c>
@@ -687,7 +714,7 @@
         <v>21.89999961853027</v>
       </c>
       <c r="F11">
-        <v>18.45062637329102</v>
+        <v>18.45061874389648</v>
       </c>
       <c r="G11">
         <v>4200</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0.06829266431854997</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.07621277349136789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>40603</v>
       </c>
@@ -713,7 +743,7 @@
         <v>21.20000076293945</v>
       </c>
       <c r="F12">
-        <v>17.86087417602539</v>
+        <v>17.86087608337402</v>
       </c>
       <c r="G12">
         <v>27100</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.0319634186202693</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.07322497477067445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>40634</v>
       </c>
@@ -739,7 +772,7 @@
         <v>23.54999923706055</v>
       </c>
       <c r="F13">
-        <v>19.84073448181152</v>
+        <v>19.84073829650879</v>
       </c>
       <c r="G13">
         <v>1700</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.1108489806391526</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.07605321965763535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>40664</v>
       </c>
@@ -765,7 +801,7 @@
         <v>22.8700008392334</v>
       </c>
       <c r="F14">
-        <v>19.26784515380859</v>
+        <v>19.26784133911133</v>
       </c>
       <c r="G14">
         <v>8800</v>
@@ -774,13 +810,16 @@
         <v>-0.02887466750984169</v>
       </c>
       <c r="I14">
-        <v>0.1423576581570212</v>
+        <v>0.07373969635324069</v>
       </c>
       <c r="J14">
         <v>0.1423576581570212</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.1423576581570212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>40695</v>
       </c>
@@ -797,7 +836,7 @@
         <v>22.45999908447266</v>
       </c>
       <c r="F15">
-        <v>19.17759704589844</v>
+        <v>19.17759895324707</v>
       </c>
       <c r="G15">
         <v>500</v>
@@ -806,13 +845,16 @@
         <v>-0.01792749189835563</v>
       </c>
       <c r="I15">
-        <v>0.1765321584572077</v>
+        <v>0.07114127387129233</v>
       </c>
       <c r="J15">
         <v>0.1765321584572077</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.1765321584572077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>40725</v>
       </c>
@@ -829,7 +871,7 @@
         <v>21.21999931335449</v>
       </c>
       <c r="F16">
-        <v>18.11882209777832</v>
+        <v>18.11882400512695</v>
       </c>
       <c r="G16">
         <v>500</v>
@@ -838,13 +880,16 @@
         <v>-0.05520925296810975</v>
       </c>
       <c r="I16">
-        <v>0.008555056558686269</v>
+        <v>0.0706180842529719</v>
       </c>
       <c r="J16">
         <v>0.008555056558686269</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.008555056558686269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>40756</v>
       </c>
@@ -861,7 +906,7 @@
         <v>19.5</v>
       </c>
       <c r="F17">
-        <v>16.65018844604492</v>
+        <v>16.65019035339355</v>
       </c>
       <c r="G17">
         <v>13500</v>
@@ -870,13 +915,16 @@
         <v>-0.08105557818147691</v>
       </c>
       <c r="I17">
-        <v>0.03229225145903603</v>
+        <v>0.07170366387261708</v>
       </c>
       <c r="J17">
         <v>0.03229225145903603</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.03229225145903603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>40787</v>
       </c>
@@ -893,7 +941,7 @@
         <v>18.03000068664551</v>
       </c>
       <c r="F18">
-        <v>15.39502048492432</v>
+        <v>15.39502239227295</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -902,13 +950,16 @@
         <v>-0.07538458017202521</v>
       </c>
       <c r="I18">
-        <v>-0.1007480612109581</v>
+        <v>0.07183199808208328</v>
       </c>
       <c r="J18">
         <v>-0.1007480612109581</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>-0.1007480612109581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>40817</v>
       </c>
@@ -934,13 +985,16 @@
         <v>0.1120354117296964</v>
       </c>
       <c r="I19">
-        <v>-0.02952568319732929</v>
+        <v>0.07503967200067721</v>
       </c>
       <c r="J19">
         <v>-0.02952568319732929</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>-0.02952568319732929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>40848</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>19.13999938964844</v>
       </c>
       <c r="F20">
-        <v>16.34280776977539</v>
+        <v>16.34280014038086</v>
       </c>
       <c r="G20">
         <v>16600</v>
@@ -966,13 +1020,16 @@
         <v>-0.04538652778250785</v>
       </c>
       <c r="I20">
-        <v>0.01971224948647921</v>
+        <v>0.07367676883023194</v>
       </c>
       <c r="J20">
         <v>0.01971224948647921</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.01971224948647921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>40878</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>18.98999977111816</v>
       </c>
       <c r="F21">
-        <v>16.31875419616699</v>
+        <v>16.31874847412109</v>
       </c>
       <c r="G21">
         <v>11200</v>
@@ -998,13 +1055,16 @@
         <v>-0.00783697091502511</v>
       </c>
       <c r="I21">
-        <v>-0.06683049557040543</v>
+        <v>0.07162376979250229</v>
       </c>
       <c r="J21">
         <v>-0.06683049557040543</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>-0.06683049557040543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>40909</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>20.06999969482422</v>
       </c>
       <c r="F22">
-        <v>17.24682807922363</v>
+        <v>17.24682998657227</v>
       </c>
       <c r="G22">
         <v>3900</v>
@@ -1030,13 +1090,16 @@
         <v>0.05687203458257128</v>
       </c>
       <c r="I22">
-        <v>-0.02097562464272107</v>
+        <v>0.07087881382223256</v>
       </c>
       <c r="J22">
         <v>-0.02097562464272107</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>-0.02097562464272107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>40940</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>22.28000068664551</v>
       </c>
       <c r="F23">
-        <v>19.14596176147461</v>
+        <v>19.14596366882324</v>
       </c>
       <c r="G23">
         <v>2400</v>
@@ -1062,13 +1125,16 @@
         <v>0.1101146499962937</v>
       </c>
       <c r="I23">
-        <v>0.01735164724814431</v>
+        <v>0.07296698982273672</v>
       </c>
       <c r="J23">
         <v>0.01735164724814431</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.01735164724814431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>40969</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>23.10000038146973</v>
       </c>
       <c r="F24">
-        <v>19.85061645507812</v>
+        <v>19.85061454772949</v>
       </c>
       <c r="G24">
         <v>1800</v>
@@ -1094,13 +1160,16 @@
         <v>0.03680429396556173</v>
       </c>
       <c r="I24">
-        <v>0.08962262029026613</v>
+        <v>0.07147989194813523</v>
       </c>
       <c r="J24">
         <v>0.08962262029026613</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.08962262029026613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>41000</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>22.65999984741211</v>
       </c>
       <c r="F25">
-        <v>19.47250366210938</v>
+        <v>19.47250747680664</v>
       </c>
       <c r="G25">
         <v>20800</v>
@@ -1126,13 +1195,16 @@
         <v>-0.01904764185244667</v>
       </c>
       <c r="I25">
-        <v>-0.03779190736651272</v>
+        <v>0.07007990962922613</v>
       </c>
       <c r="J25">
         <v>-0.03779190736651272</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>-0.03779190736651272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>41030</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>20.21999931335449</v>
       </c>
       <c r="F26">
-        <v>17.37573051452637</v>
+        <v>17.37572860717773</v>
       </c>
       <c r="G26">
         <v>200</v>
@@ -1158,13 +1230,16 @@
         <v>-0.1076787533313368</v>
       </c>
       <c r="I26">
-        <v>-0.1158723842866171</v>
+        <v>0.07247473369205805</v>
       </c>
       <c r="J26">
         <v>-0.1158723842866171</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>-0.1158723842866171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>41061</v>
       </c>
@@ -1190,13 +1265,16 @@
         <v>0.0207715178316823</v>
       </c>
       <c r="I27">
-        <v>-0.08103293717774218</v>
+        <v>0.07103858439522104</v>
       </c>
       <c r="J27">
         <v>-0.08103293717774218</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>-0.08103293717774218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>41091</v>
       </c>
@@ -1222,13 +1300,16 @@
         <v>-0.02858527955595735</v>
       </c>
       <c r="I28">
-        <v>-0.05513666890449065</v>
+        <v>0.06988948905779993</v>
       </c>
       <c r="J28">
         <v>-0.05513666890449065</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>-0.05513666890449065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>41122</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>21</v>
       </c>
       <c r="F29">
-        <v>18.26302528381348</v>
+        <v>18.26302719116211</v>
       </c>
       <c r="G29">
         <v>1400</v>
@@ -1254,13 +1335,16 @@
         <v>0.04738158598946307</v>
       </c>
       <c r="I29">
-        <v>0.07692307692307687</v>
+        <v>0.06907704754341557</v>
       </c>
       <c r="J29">
         <v>0.07692307692307687</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.07692307692307687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>41153</v>
       </c>
@@ -1286,13 +1370,16 @@
         <v>0.07190477280389684</v>
       </c>
       <c r="I30">
-        <v>0.2484747294299652</v>
+        <v>0.06898774165246219</v>
       </c>
       <c r="J30">
         <v>0.2484747294299652</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.2484747294299652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>41183</v>
       </c>
@@ -1318,13 +1405,16 @@
         <v>-0.004442486914834398</v>
       </c>
       <c r="I31">
-        <v>0.1177057705812439</v>
+        <v>0.06777498177743442</v>
       </c>
       <c r="J31">
         <v>0.1177057705812439</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.1177057705812439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>41214</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>23.60000038146973</v>
       </c>
       <c r="F32">
-        <v>20.52416038513184</v>
+        <v>20.52416229248047</v>
       </c>
       <c r="G32">
         <v>8500</v>
@@ -1350,13 +1440,16 @@
         <v>0.05310131825793096</v>
       </c>
       <c r="I32">
-        <v>0.2330199129595276</v>
+        <v>0.06714667327896964</v>
       </c>
       <c r="J32">
         <v>0.2330199129595276</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.2330199129595276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>41244</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>25.09000015258789</v>
       </c>
       <c r="F33">
-        <v>21.90351486206055</v>
+        <v>21.90351104736328</v>
       </c>
       <c r="G33">
         <v>49100</v>
@@ -1382,13 +1475,16 @@
         <v>0.06313558250143436</v>
       </c>
       <c r="I33">
-        <v>0.3212217195888123</v>
+        <v>0.0667654201029</v>
       </c>
       <c r="J33">
         <v>0.3212217195888123</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.3212217195888123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>41275</v>
       </c>
@@ -1414,13 +1510,16 @@
         <v>0.05619768189864582</v>
       </c>
       <c r="I34">
-        <v>0.3203786947158744</v>
+        <v>0.06619734388078526</v>
       </c>
       <c r="J34">
         <v>0.3203786947158744</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.3203786947158744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>41306</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>27</v>
       </c>
       <c r="F35">
-        <v>23.5709400177002</v>
+        <v>23.57093811035156</v>
       </c>
       <c r="G35">
         <v>16600</v>
@@ -1446,13 +1545,16 @@
         <v>0.01886792452830188</v>
       </c>
       <c r="I35">
-        <v>0.211849154752658</v>
+        <v>0.06516948506561351</v>
       </c>
       <c r="J35">
         <v>0.211849154752658</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.211849154752658</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>41334</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>28.43000030517578</v>
       </c>
       <c r="F36">
-        <v>24.8193244934082</v>
+        <v>24.81932640075684</v>
       </c>
       <c r="G36">
         <v>25800</v>
@@ -1478,13 +1580,16 @@
         <v>0.05296297426576957</v>
       </c>
       <c r="I36">
-        <v>0.2307359236228261</v>
+        <v>0.06457364022475084</v>
       </c>
       <c r="J36">
         <v>0.2307359236228261</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.2307359236228261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>41365</v>
       </c>
@@ -1510,13 +1615,16 @@
         <v>0.006331350799986257</v>
       </c>
       <c r="I37">
-        <v>0.2625772640337849</v>
+        <v>0.06362518683209233</v>
       </c>
       <c r="J37">
         <v>0.2625772640337849</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.2625772640337849</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>41395</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>29.29999923706055</v>
       </c>
       <c r="F38">
-        <v>25.57883071899414</v>
+        <v>25.57883262634277</v>
       </c>
       <c r="G38">
         <v>51400</v>
@@ -1542,13 +1650,16 @@
         <v>0.02411739293914361</v>
       </c>
       <c r="I38">
-        <v>0.449060347777019</v>
+        <v>0.06274102039979935</v>
       </c>
       <c r="J38">
         <v>0.449060347777019</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0.449060347777019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>41426</v>
       </c>
@@ -1574,13 +1685,16 @@
         <v>-0.02013652450344161</v>
       </c>
       <c r="I39">
-        <v>0.390988368869408</v>
+        <v>0.06209640789895633</v>
       </c>
       <c r="J39">
         <v>0.390988368869408</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.390988368869408</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>41456</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>30.89999961853027</v>
       </c>
       <c r="F40">
-        <v>27.22729682922363</v>
+        <v>27.227294921875</v>
       </c>
       <c r="G40">
         <v>29400</v>
@@ -1606,13 +1720,16 @@
         <v>0.07628006283156052</v>
       </c>
       <c r="I40">
-        <v>0.5411471717871448</v>
+        <v>0.06214192376674411</v>
       </c>
       <c r="J40">
         <v>0.5411471717871448</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.5411471717871448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>41487</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>31.52000045776367</v>
       </c>
       <c r="F41">
-        <v>27.77360153198242</v>
+        <v>27.77359962463379</v>
       </c>
       <c r="G41">
         <v>9200</v>
@@ -1638,13 +1755,16 @@
         <v>0.0200647523264561</v>
       </c>
       <c r="I41">
-        <v>0.5009524027506511</v>
+        <v>0.06132819771369421</v>
       </c>
       <c r="J41">
         <v>0.5009524027506511</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.5009524027506511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>41518</v>
       </c>
@@ -1670,13 +1790,16 @@
         <v>0.05234764236100231</v>
       </c>
       <c r="I42">
-        <v>0.4735672070934049</v>
+        <v>0.06084705273361003</v>
       </c>
       <c r="J42">
         <v>0.4735672070934049</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.4735672070934049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>41548</v>
       </c>
@@ -1702,13 +1825,16 @@
         <v>0.04009653013185499</v>
       </c>
       <c r="I43">
-        <v>0.5394913090097158</v>
+        <v>0.06021440947959887</v>
       </c>
       <c r="J43">
         <v>0.5394913090097158</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.5394913090097158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>41579</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>35.47999954223633</v>
       </c>
       <c r="F44">
-        <v>31.26292991638184</v>
+        <v>31.26292419433594</v>
       </c>
       <c r="G44">
         <v>10000</v>
@@ -1734,13 +1860,16 @@
         <v>0.02840578383293701</v>
       </c>
       <c r="I44">
-        <v>0.5033897868109591</v>
+        <v>0.05951081188823024</v>
       </c>
       <c r="J44">
         <v>0.5033897868109591</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.5033897868109591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>41609</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>35.84999847412109</v>
       </c>
       <c r="F45">
-        <v>31.88552093505859</v>
+        <v>31.8855152130127</v>
       </c>
       <c r="G45">
         <v>31600</v>
@@ -1766,13 +1895,16 @@
         <v>0.01042838040187433</v>
       </c>
       <c r="I45">
-        <v>0.4288560484693089</v>
+        <v>0.05880306433906766</v>
       </c>
       <c r="J45">
         <v>0.4288560484693089</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.4288560484693089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>41640</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>35.79000091552734</v>
       </c>
       <c r="F46">
-        <v>31.83215141296387</v>
+        <v>31.83214950561523</v>
       </c>
       <c r="G46">
         <v>73800</v>
@@ -1798,13 +1930,16 @@
         <v>-0.001673572138003343</v>
       </c>
       <c r="I46">
-        <v>0.3505660722840507</v>
+        <v>0.05817179960513353</v>
       </c>
       <c r="J46">
         <v>0.3505660722840507</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.3505660722840507</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>41671</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>40.95000076293945</v>
       </c>
       <c r="F47">
-        <v>36.42153549194336</v>
+        <v>36.42152786254883</v>
       </c>
       <c r="G47">
         <v>51500</v>
@@ -1830,13 +1965,16 @@
         <v>0.1441743424257211</v>
       </c>
       <c r="I47">
-        <v>0.5166666949236836</v>
+        <v>0.06064790068046899</v>
       </c>
       <c r="J47">
         <v>0.5166666949236836</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.5166666949236836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>41699</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>39.29000091552734</v>
       </c>
       <c r="F48">
-        <v>34.94510650634766</v>
+        <v>34.94510269165039</v>
       </c>
       <c r="G48">
         <v>31100</v>
@@ -1862,13 +2000,16 @@
         <v>-0.04053723605579129</v>
       </c>
       <c r="I48">
-        <v>0.3819908720990925</v>
+        <v>0.06058428779111172</v>
       </c>
       <c r="J48">
         <v>0.3819908720990925</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.3819908720990925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>41730</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>38.59000015258789</v>
       </c>
       <c r="F49">
-        <v>34.32250213623047</v>
+        <v>34.32251358032227</v>
       </c>
       <c r="G49">
         <v>20700</v>
@@ -1894,13 +2035,16 @@
         <v>-0.01781625723156488</v>
       </c>
       <c r="I49">
-        <v>0.3488290572991251</v>
+        <v>0.0601314299619512</v>
       </c>
       <c r="J49">
         <v>0.3488290572991251</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.3488290572991251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>41760</v>
       </c>
@@ -1926,13 +2070,16 @@
         <v>-0.03809280162971296</v>
       </c>
       <c r="I50">
-        <v>0.266894194486291</v>
+        <v>0.05999503223800447</v>
       </c>
       <c r="J50">
         <v>0.266894194486291</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.266894194486291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>41791</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>35.81000137329102</v>
       </c>
       <c r="F51">
-        <v>32.16368865966797</v>
+        <v>32.1636962890625</v>
       </c>
       <c r="G51">
         <v>167900</v>
@@ -1958,13 +2105,16 @@
         <v>-0.03529088352070264</v>
       </c>
       <c r="I51">
-        <v>0.2473006797362902</v>
+        <v>0.05979469177901468</v>
       </c>
       <c r="J51">
         <v>0.2473006797362902</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.2473006797362902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>41821</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>34.65000152587891</v>
       </c>
       <c r="F52">
-        <v>31.12180137634277</v>
+        <v>31.12180328369141</v>
       </c>
       <c r="G52">
         <v>45300</v>
@@ -1990,13 +2140,16 @@
         <v>-0.03239318075752151</v>
       </c>
       <c r="I52">
-        <v>0.1213592865256805</v>
+        <v>0.0595388999192101</v>
       </c>
       <c r="J52">
         <v>0.1213592865256805</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.1213592865256805</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>41852</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>35.27000045776367</v>
       </c>
       <c r="F53">
-        <v>31.67867660522461</v>
+        <v>31.67867469787598</v>
       </c>
       <c r="G53">
         <v>13900</v>
@@ -2022,13 +2175,16 @@
         <v>0.01789318627942071</v>
       </c>
       <c r="I53">
-        <v>0.1189720794904474</v>
+        <v>0.05894489983664578</v>
       </c>
       <c r="J53">
         <v>0.1189720794904474</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.1189720794904474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>41883</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>34.45000076293945</v>
       </c>
       <c r="F54">
-        <v>30.94216918945312</v>
+        <v>30.94216537475586</v>
       </c>
       <c r="G54">
         <v>3400</v>
@@ -2054,13 +2210,16 @@
         <v>-0.02324921134623115</v>
       </c>
       <c r="I54">
-        <v>0.03858916685719072</v>
+        <v>0.05857848224145119</v>
       </c>
       <c r="J54">
         <v>0.03858916685719072</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.03858916685719072</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>41913</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>33.31999969482422</v>
       </c>
       <c r="F55">
-        <v>29.9272346496582</v>
+        <v>29.92722702026367</v>
       </c>
       <c r="G55">
         <v>11500</v>
@@ -2086,13 +2245,16 @@
         <v>-0.03280119138141979</v>
       </c>
       <c r="I55">
-        <v>-0.03420290739639942</v>
+        <v>0.05834028572340158</v>
       </c>
       <c r="J55">
         <v>-0.03420290739639942</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>-0.03420290739639942</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>41944</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>35.31000137329102</v>
       </c>
       <c r="F56">
-        <v>31.714599609375</v>
+        <v>31.7146053314209</v>
       </c>
       <c r="G56">
         <v>6700</v>
@@ -2118,13 +2280,16 @@
         <v>0.05972394047698359</v>
       </c>
       <c r="I56">
-        <v>-0.004791380246297439</v>
+        <v>0.05816162996834977</v>
       </c>
       <c r="J56">
         <v>-0.004791380246297439</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.004791380246297439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>41974</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>34.43000030517578</v>
       </c>
       <c r="F57">
-        <v>31.31205368041992</v>
+        <v>31.31205177307129</v>
       </c>
       <c r="G57">
         <v>3300</v>
@@ -2150,13 +2315,16 @@
         <v>-0.02492214766043255</v>
       </c>
       <c r="I57">
-        <v>-0.0396094345713951</v>
+        <v>0.05783767101888988</v>
       </c>
       <c r="J57">
         <v>-0.0396094345713951</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.0396094345713951</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>42005</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>33.90999984741211</v>
       </c>
       <c r="F58">
-        <v>30.83914375305176</v>
+        <v>30.83914184570312</v>
       </c>
       <c r="G58">
         <v>15700</v>
@@ -2182,13 +2350,16 @@
         <v>-0.01510312091648458</v>
       </c>
       <c r="I58">
-        <v>-0.05252866778496235</v>
+        <v>0.05741988117690556</v>
       </c>
       <c r="J58">
         <v>-0.05252866778496235</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.05252866778496235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>42036</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>38.20000076293945</v>
       </c>
       <c r="F59">
-        <v>34.74065017700195</v>
+        <v>34.74064636230469</v>
       </c>
       <c r="G59">
         <v>15300</v>
@@ -2214,13 +2385,16 @@
         <v>0.1265113811510306</v>
       </c>
       <c r="I59">
-        <v>-0.06715506590390108</v>
+        <v>0.05892388708077399</v>
       </c>
       <c r="J59">
         <v>-0.06715506590390108</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.06715506590390108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>42064</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>37.2599983215332</v>
       </c>
       <c r="F60">
-        <v>33.88576507568359</v>
+        <v>33.88576889038086</v>
       </c>
       <c r="G60">
         <v>17400</v>
@@ -2246,13 +2420,16 @@
         <v>-0.02460739326262562</v>
       </c>
       <c r="I60">
-        <v>-0.05166715568061708</v>
+        <v>0.05861401492330334</v>
       </c>
       <c r="J60">
         <v>-0.05166715568061708</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.05166715568061708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>42095</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>39.2599983215332</v>
       </c>
       <c r="F61">
-        <v>35.70465087890625</v>
+        <v>35.70464706420898</v>
       </c>
       <c r="G61">
         <v>45900</v>
@@ -2278,13 +2455,16 @@
         <v>0.05367686768907243</v>
       </c>
       <c r="I61">
-        <v>0.01736196336605556</v>
+        <v>0.05835410067323761</v>
       </c>
       <c r="J61">
         <v>0.01736196336605556</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>0.01736196336605556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>42125</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>39.56000137329102</v>
       </c>
       <c r="F62">
-        <v>35.97748565673828</v>
+        <v>35.97748184204102</v>
       </c>
       <c r="G62">
         <v>40700</v>
@@ -2310,13 +2490,16 @@
         <v>0.007641443315937968</v>
       </c>
       <c r="I62">
-        <v>0.06573282628277166</v>
+        <v>0.05786180139823387</v>
       </c>
       <c r="J62">
         <v>0.06573282628277166</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>0.06573282628277166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>42156</v>
       </c>
@@ -2342,13 +2525,16 @@
         <v>-0.01213345615706674</v>
       </c>
       <c r="I63">
-        <v>0.09131528434407188</v>
+        <v>0.05746804753921218</v>
       </c>
       <c r="J63">
         <v>0.09131528434407188</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>0.09131528434407188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>42186</v>
       </c>
@@ -2374,13 +2560,16 @@
         <v>0.0522005374935528</v>
       </c>
       <c r="I64">
-        <v>0.1867243036388797</v>
+        <v>0.05721621374326034</v>
       </c>
       <c r="J64">
         <v>0.1867243036388797</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>0.1867243036388797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>42217</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>40.5099983215332</v>
       </c>
       <c r="F65">
-        <v>37.25376510620117</v>
+        <v>37.25376892089844</v>
       </c>
       <c r="G65">
         <v>19900</v>
@@ -2406,13 +2595,16 @@
         <v>-0.01483464557871284</v>
       </c>
       <c r="I65">
-        <v>0.1485681257658191</v>
+        <v>0.05686323003930272</v>
       </c>
       <c r="J65">
         <v>0.1485681257658191</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>0.1485681257658191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>42248</v>
       </c>
@@ -2438,13 +2630,16 @@
         <v>-0.03900266802819319</v>
       </c>
       <c r="I66">
-        <v>0.1300435251965455</v>
+        <v>0.05678083892320962</v>
       </c>
       <c r="J66">
         <v>0.1300435251965455</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>0.1300435251965455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>42278</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>39.43999862670898</v>
       </c>
       <c r="F67">
-        <v>36.269775390625</v>
+        <v>36.26976776123047</v>
       </c>
       <c r="G67">
         <v>47900</v>
@@ -2470,13 +2665,16 @@
         <v>0.01310039346353142</v>
       </c>
       <c r="I67">
-        <v>0.1836734390137291</v>
+        <v>0.05633565464375727</v>
       </c>
       <c r="J67">
         <v>0.1836734390137291</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>0.1836734390137291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>42309</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>40.34999847412109</v>
       </c>
       <c r="F68">
-        <v>37.10662841796875</v>
+        <v>37.10662460327148</v>
       </c>
       <c r="G68">
         <v>38900</v>
@@ -2502,13 +2700,16 @@
         <v>0.02307301924690863</v>
       </c>
       <c r="I68">
-        <v>0.1427356812464584</v>
+        <v>0.05591715926387855</v>
       </c>
       <c r="J68">
         <v>0.1427356812464584</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>0.1427356812464584</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>42339</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>41.56000137329102</v>
       </c>
       <c r="F69">
-        <v>38.4554557800293</v>
+        <v>38.45545196533203</v>
       </c>
       <c r="G69">
         <v>73300</v>
@@ -2534,13 +2735,16 @@
         <v>0.0299876814108424</v>
       </c>
       <c r="I69">
-        <v>0.2070868720568497</v>
+        <v>0.05553449224818947</v>
       </c>
       <c r="J69">
         <v>0.2070868720568497</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>0.2070868720568497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>42370</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>38.77999877929688</v>
       </c>
       <c r="F70">
-        <v>35.88312149047852</v>
+        <v>35.88311767578125</v>
       </c>
       <c r="G70">
         <v>30600</v>
@@ -2566,13 +2770,16 @@
         <v>-0.06689130178375646</v>
       </c>
       <c r="I70">
-        <v>0.1436154218165362</v>
+        <v>0.05595216159685251</v>
       </c>
       <c r="J70">
         <v>0.1436154218165362</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>0.1436154218165362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>42401</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>37.34999847412109</v>
       </c>
       <c r="F71">
-        <v>34.55994415283203</v>
+        <v>34.5599479675293</v>
       </c>
       <c r="G71">
         <v>37000</v>
@@ -2598,13 +2805,16 @@
         <v>-0.03687468669904148</v>
       </c>
       <c r="I71">
-        <v>-0.02225136837282493</v>
+        <v>0.05584110939987819</v>
       </c>
       <c r="J71">
         <v>-0.02225136837282493</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.02225136837282493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>42430</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>40.20000076293945</v>
       </c>
       <c r="F72">
-        <v>37.19704437255859</v>
+        <v>37.19705200195312</v>
       </c>
       <c r="G72">
         <v>17200</v>
@@ -2630,13 +2840,16 @@
         <v>0.07630528528115077</v>
       </c>
       <c r="I72">
-        <v>0.07890506102645656</v>
+        <v>0.05598859454239455</v>
       </c>
       <c r="J72">
         <v>0.07890506102645656</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>0.07890506102645656</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>42461</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>39.9900016784668</v>
       </c>
       <c r="F73">
-        <v>37.00273132324219</v>
+        <v>37.00273513793945</v>
       </c>
       <c r="G73">
         <v>36300</v>
@@ -2662,13 +2875,16 @@
         <v>-0.005223857723561376</v>
       </c>
       <c r="I73">
-        <v>0.01859407509279509</v>
+        <v>0.05562279886711916</v>
       </c>
       <c r="J73">
         <v>0.01859407509279509</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>0.01859407509279509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>42491</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>40.68999862670898</v>
       </c>
       <c r="F74">
-        <v>37.65044784545898</v>
+        <v>37.65044403076172</v>
       </c>
       <c r="G74">
         <v>206700</v>
@@ -2694,13 +2910,16 @@
         <v>0.01750429904630657</v>
       </c>
       <c r="I74">
-        <v>0.02856413584911777</v>
+        <v>0.05523454460610845</v>
       </c>
       <c r="J74">
         <v>0.02856413584911777</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0.02856413584911777</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>42522</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>35.93999862670898</v>
       </c>
       <c r="F75">
-        <v>33.51103591918945</v>
+        <v>33.51103973388672</v>
       </c>
       <c r="G75">
         <v>46700</v>
@@ -2726,13 +2945,16 @@
         <v>-0.1167363027847853</v>
       </c>
       <c r="I75">
-        <v>-0.08034808232405244</v>
+        <v>0.05686245974422346</v>
       </c>
       <c r="J75">
         <v>-0.08034808232405244</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.08034808232405244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>42552</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>37.29999923706055</v>
       </c>
       <c r="F76">
-        <v>34.77912139892578</v>
+        <v>34.77911758422852</v>
       </c>
       <c r="G76">
         <v>37000</v>
@@ -2758,13 +2980,16 @@
         <v>0.03784086428264</v>
       </c>
       <c r="I76">
-        <v>-0.09289882767633439</v>
+        <v>0.05656680339936531</v>
       </c>
       <c r="J76">
         <v>-0.09289882767633439</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.09289882767633439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>42583</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>38.90999984741211</v>
       </c>
       <c r="F77">
-        <v>36.28030776977539</v>
+        <v>36.28031539916992</v>
       </c>
       <c r="G77">
         <v>25000</v>
@@ -2790,13 +3015,16 @@
         <v>0.04316355612018086</v>
       </c>
       <c r="I77">
-        <v>-0.03949638460662708</v>
+        <v>0.05631357475607229</v>
       </c>
       <c r="J77">
         <v>-0.03949638460662708</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.03949638460662708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>42614</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>38.0099983215332</v>
       </c>
       <c r="F78">
-        <v>35.44112777709961</v>
+        <v>35.44113540649414</v>
       </c>
       <c r="G78">
         <v>22800</v>
@@ -2822,13 +3050,16 @@
         <v>-0.02313034000021374</v>
       </c>
       <c r="I78">
-        <v>-0.02363221105652713</v>
+        <v>0.05606937101516381</v>
       </c>
       <c r="J78">
         <v>-0.02363221105652713</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.02363221105652713</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>42644</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>36.22000122070312</v>
       </c>
       <c r="F79">
-        <v>33.77212142944336</v>
+        <v>33.77210998535156</v>
       </c>
       <c r="G79">
         <v>23900</v>
@@ -2854,13 +3085,16 @@
         <v>-0.04709279610296691</v>
       </c>
       <c r="I79">
-        <v>-0.08164293910054199</v>
+        <v>0.05607811812912984</v>
       </c>
       <c r="J79">
         <v>-0.08164293910054199</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.08164293910054199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>42675</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>36.40000152587891</v>
       </c>
       <c r="F80">
-        <v>33.9399528503418</v>
+        <v>33.93994903564453</v>
       </c>
       <c r="G80">
         <v>13800</v>
@@ -2886,13 +3120,16 @@
         <v>0.004969638296778767</v>
       </c>
       <c r="I80">
-        <v>-0.09789336053570263</v>
+        <v>0.05571491018983239</v>
       </c>
       <c r="J80">
         <v>-0.09789336053570263</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.09789336053570263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>42705</v>
       </c>
@@ -2918,13 +3155,16 @@
         <v>0.03104387928705399</v>
       </c>
       <c r="I81">
-        <v>-0.09696829790251316</v>
+        <v>0.05541107520382957</v>
       </c>
       <c r="J81">
         <v>-0.09696829790251316</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.09696829790251316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>42736</v>
       </c>
@@ -2950,13 +3190,16 @@
         <v>0.02717827047536026</v>
       </c>
       <c r="I82">
-        <v>-0.005930880595053423</v>
+        <v>0.05509476290147739</v>
       </c>
       <c r="J82">
         <v>-0.005930880595053423</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.005930880595053423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>42767</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>39.20000076293945</v>
       </c>
       <c r="F83">
-        <v>36.75052642822266</v>
+        <v>36.75052261352539</v>
       </c>
       <c r="G83">
         <v>7600</v>
@@ -2982,13 +3225,16 @@
         <v>0.0168612591113626</v>
       </c>
       <c r="I83">
-        <v>0.04953152247382775</v>
+        <v>0.05475510298478415</v>
       </c>
       <c r="J83">
         <v>0.04953152247382775</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>0.04953152247382775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>42795</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>40.06000137329102</v>
       </c>
       <c r="F84">
-        <v>37.55678558349609</v>
+        <v>37.55677795410156</v>
       </c>
       <c r="G84">
         <v>9700</v>
@@ -3014,13 +3260,16 @@
         <v>0.02193879065340809</v>
       </c>
       <c r="I84">
-        <v>-0.003482571815707658</v>
+        <v>0.0544325714916633</v>
       </c>
       <c r="J84">
         <v>-0.003482571815707658</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.003482571815707658</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>42826</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>42.15000152587891</v>
       </c>
       <c r="F85">
-        <v>39.51618957519531</v>
+        <v>39.51618194580078</v>
       </c>
       <c r="G85">
         <v>8000</v>
@@ -3046,13 +3295,16 @@
         <v>0.0521717444069123</v>
       </c>
       <c r="I85">
-        <v>0.05401349729312943</v>
+        <v>0.05429782056560623</v>
       </c>
       <c r="J85">
         <v>0.05401349729312943</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>0.05401349729312943</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>42856</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>43.65000152587891</v>
       </c>
       <c r="F86">
-        <v>40.92245101928711</v>
+        <v>40.92245483398438</v>
       </c>
       <c r="G86">
         <v>12000</v>
@@ -3078,13 +3330,16 @@
         <v>0.03558718732380206</v>
       </c>
       <c r="I86">
-        <v>0.07274521993291416</v>
+        <v>0.05403935002252157</v>
       </c>
       <c r="J86">
         <v>0.07274521993291416</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>0.07274521993291416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>42887</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>43.54000091552734</v>
       </c>
       <c r="F87">
-        <v>41.14297103881836</v>
+        <v>41.14296340942383</v>
       </c>
       <c r="G87">
         <v>5700</v>
@@ -3110,13 +3365,16 @@
         <v>-0.002520059713774447</v>
       </c>
       <c r="I87">
-        <v>0.2114636221263064</v>
+        <v>0.05373601744966013</v>
       </c>
       <c r="J87">
         <v>0.2114636221263064</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>0.2114636221263064</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>42917</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>43.93000030517578</v>
       </c>
       <c r="F88">
-        <v>41.51148986816406</v>
+        <v>41.51149368286133</v>
       </c>
       <c r="G88">
         <v>7700</v>
@@ -3142,13 +3400,16 @@
         <v>0.008957266454933777</v>
       </c>
       <c r="I88">
-        <v>0.1777480215476197</v>
+        <v>0.05341928115127296</v>
       </c>
       <c r="J88">
         <v>0.1777480215476197</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0.1777480215476197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>42948</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>43.79999923706055</v>
       </c>
       <c r="F89">
-        <v>41.38865280151367</v>
+        <v>41.38864898681641</v>
       </c>
       <c r="G89">
         <v>7400</v>
@@ -3174,13 +3435,16 @@
         <v>-0.00295927765108428</v>
       </c>
       <c r="I89">
-        <v>0.1256746185768405</v>
+        <v>0.05312762735143722</v>
       </c>
       <c r="J89">
         <v>0.1256746185768405</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0.1256746185768405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>42979</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>46.27999877929688</v>
       </c>
       <c r="F90">
-        <v>43.73211288452148</v>
+        <v>43.73212051391602</v>
       </c>
       <c r="G90">
         <v>40700</v>
@@ -3206,13 +3470,16 @@
         <v>0.05662099510124929</v>
       </c>
       <c r="I90">
-        <v>0.2175743441977107</v>
+        <v>0.05305048478757068</v>
       </c>
       <c r="J90">
         <v>0.2175743441977107</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.2175743441977107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>43009</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>46.52000045776367</v>
       </c>
       <c r="F91">
-        <v>43.95890426635742</v>
+        <v>43.95890808105469</v>
       </c>
       <c r="G91">
         <v>36300</v>
@@ -3238,13 +3505,16 @@
         <v>0.005185861814978265</v>
       </c>
       <c r="I91">
-        <v>0.2843732437858983</v>
+        <v>0.05275173725187267</v>
       </c>
       <c r="J91">
         <v>0.2843732437858983</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.2843732437858983</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>43040</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>46.33000183105469</v>
       </c>
       <c r="F92">
-        <v>43.77936935424805</v>
+        <v>43.77936553955078</v>
       </c>
       <c r="G92">
         <v>8200</v>
@@ -3270,13 +3540,16 @@
         <v>-0.004084235271697545</v>
       </c>
       <c r="I92">
-        <v>0.2728021947503481</v>
+        <v>0.05247826562099832</v>
       </c>
       <c r="J92">
         <v>0.2728021947503481</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.2728021947503481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>43070</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>47.9900016784668</v>
       </c>
       <c r="F93">
-        <v>45.67678833007812</v>
+        <v>45.67678451538086</v>
       </c>
       <c r="G93">
         <v>5800</v>
@@ -3302,13 +3575,16 @@
         <v>0.0358299111117113</v>
       </c>
       <c r="I93">
-        <v>0.2787104513560523</v>
+        <v>0.05225226030479505</v>
       </c>
       <c r="J93">
         <v>0.2787104513560523</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.2787104513560523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>43101</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>49.06000137329102</v>
       </c>
       <c r="F94">
-        <v>46.69520568847656</v>
+        <v>46.69520950317383</v>
       </c>
       <c r="G94">
         <v>3100</v>
@@ -3334,13 +3610,16 @@
         <v>0.02229630459263632</v>
       </c>
       <c r="I94">
-        <v>0.272633005038468</v>
+        <v>0.05197772637760187</v>
       </c>
       <c r="J94">
         <v>0.272633005038468</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.272633005038468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>43132</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>46.09000015258789</v>
       </c>
       <c r="F95">
-        <v>43.86836242675781</v>
+        <v>43.86836624145508</v>
       </c>
       <c r="G95">
         <v>125500</v>
@@ -3366,13 +3645,16 @@
         <v>-0.06053813977918143</v>
       </c>
       <c r="I95">
-        <v>0.1757652871313817</v>
+        <v>0.05222572363713343</v>
       </c>
       <c r="J95">
         <v>0.1757652871313817</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.1757652871313817</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>43160</v>
       </c>
@@ -3398,13 +3680,16 @@
         <v>0.01366893178627726</v>
       </c>
       <c r="I96">
-        <v>0.1662506145557072</v>
+        <v>0.05194531204530498</v>
       </c>
       <c r="J96">
         <v>0.1662506145557072</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.1662506145557072</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>43191</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>47.02999877929688</v>
       </c>
       <c r="F97">
-        <v>44.76305389404297</v>
+        <v>44.76305770874023</v>
       </c>
       <c r="G97">
         <v>12500</v>
@@ -3430,13 +3715,16 @@
         <v>0.006635221543110248</v>
       </c>
       <c r="I97">
-        <v>0.115776917598017</v>
+        <v>0.05166969783297841</v>
       </c>
       <c r="J97">
         <v>0.115776917598017</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.115776917598017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>43221</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>48.45999908447266</v>
       </c>
       <c r="F98">
-        <v>46.12412643432617</v>
+        <v>46.1241340637207</v>
       </c>
       <c r="G98">
         <v>10300</v>
@@ -3462,13 +3750,16 @@
         <v>0.03040613102897383</v>
       </c>
       <c r="I98">
-        <v>0.110194671029783</v>
+        <v>0.0514378116025003</v>
       </c>
       <c r="J98">
         <v>0.110194671029783</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.110194671029783</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>43252</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>47.33000183105469</v>
       </c>
       <c r="F99">
-        <v>45.4600830078125</v>
+        <v>45.46007919311523</v>
       </c>
       <c r="G99">
         <v>49600</v>
@@ -3494,13 +3785,16 @@
         <v>-0.02331814434103108</v>
       </c>
       <c r="I99">
-        <v>0.08704641331727081</v>
+        <v>0.05128463117555588</v>
       </c>
       <c r="J99">
         <v>0.08704641331727081</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.08704641331727081</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>43282</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>47.06999969482422</v>
       </c>
       <c r="F100">
-        <v>45.21035766601562</v>
+        <v>45.21035003662109</v>
       </c>
       <c r="G100">
         <v>11700</v>
@@ -3526,13 +3820,16 @@
         <v>-0.005493389524018011</v>
       </c>
       <c r="I100">
-        <v>0.0714773359397971</v>
+        <v>0.0510442204903241</v>
       </c>
       <c r="J100">
         <v>0.0714773359397971</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.0714773359397971</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>43313</v>
       </c>
@@ -3558,13 +3855,16 @@
         <v>-0.01912049143220773</v>
       </c>
       <c r="I101">
-        <v>0.05410956559742219</v>
+        <v>0.05086762932063793</v>
       </c>
       <c r="J101">
         <v>0.05410956559742219</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.05410956559742219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>43344</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>45.06999969482422</v>
       </c>
       <c r="F102">
-        <v>43.28937530517578</v>
+        <v>43.28937149047852</v>
       </c>
       <c r="G102">
         <v>14700</v>
@@ -3590,13 +3890,16 @@
         <v>-0.02382496248095956</v>
       </c>
       <c r="I102">
-        <v>-0.02614518401875898</v>
+        <v>0.05072129655863923</v>
       </c>
       <c r="J102">
         <v>-0.02614518401875898</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>-0.02614518401875898</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>43374</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>41.20999908447266</v>
       </c>
       <c r="F103">
-        <v>39.58186721801758</v>
+        <v>39.58187103271484</v>
       </c>
       <c r="G103">
         <v>8400</v>
@@ -3622,13 +3925,16 @@
         <v>-0.0856445670398982</v>
       </c>
       <c r="I103">
-        <v>-0.1141444823955249</v>
+        <v>0.05134573849320237</v>
       </c>
       <c r="J103">
         <v>-0.1141444823955249</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>-0.1141444823955249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>43405</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>39.54999923706055</v>
       </c>
       <c r="F104">
-        <v>37.98745346069336</v>
+        <v>37.98744964599609</v>
       </c>
       <c r="G104">
         <v>3000</v>
@@ -3654,13 +3960,16 @@
         <v>-0.04028148226864614</v>
       </c>
       <c r="I104">
-        <v>-0.1463415136204366</v>
+        <v>0.05131844865654491</v>
       </c>
       <c r="J104">
         <v>-0.1463415136204366</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>-0.1463415136204366</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>43435</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>37.0099983215332</v>
       </c>
       <c r="F105">
-        <v>35.66614532470703</v>
+        <v>35.66614151000977</v>
       </c>
       <c r="G105">
         <v>22300</v>
@@ -3686,13 +3995,16 @@
         <v>-0.06422252754804658</v>
       </c>
       <c r="I105">
-        <v>-0.2287977281288645</v>
+        <v>0.0515596196374101</v>
       </c>
       <c r="J105">
         <v>-0.2287977281288645</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>-0.2287977281288645</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>43466</v>
       </c>
@@ -3718,13 +4030,16 @@
         <v>0.07916780432467752</v>
       </c>
       <c r="I106">
-        <v>-0.1858948734466831</v>
+        <v>0.05179054374679448</v>
       </c>
       <c r="J106">
         <v>-0.1858948734466831</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>-0.1858948734466831</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>43497</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>41.4900016784668</v>
       </c>
       <c r="F107">
-        <v>39.98348236083984</v>
+        <v>39.98347854614258</v>
       </c>
       <c r="G107">
         <v>13900</v>
@@ -3750,13 +4065,16 @@
         <v>0.0388082900614144</v>
       </c>
       <c r="I107">
-        <v>-0.09980469643940348</v>
+        <v>0.05162866907989419</v>
       </c>
       <c r="J107">
         <v>-0.09980469643940348</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>-0.09980469643940348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>43525</v>
       </c>
@@ -3782,13 +4100,16 @@
         <v>0.003374292214625152</v>
       </c>
       <c r="I108">
-        <v>-0.1089469182276551</v>
+        <v>0.05138443551163233</v>
       </c>
       <c r="J108">
         <v>-0.1089469182276551</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>-0.1089469182276551</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>43556</v>
       </c>
@@ -3814,13 +4135,16 @@
         <v>0.03843378412369414</v>
       </c>
       <c r="I109">
-        <v>-0.0807994755622522</v>
+        <v>0.05122477253576981</v>
       </c>
       <c r="J109">
         <v>-0.0807994755622522</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>-0.0807994755622522</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>43586</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>41.2400016784668</v>
       </c>
       <c r="F110">
-        <v>39.74255752563477</v>
+        <v>39.74254989624023</v>
       </c>
       <c r="G110">
         <v>9500</v>
@@ -3846,13 +4170,16 @@
         <v>-0.04603279863154464</v>
       </c>
       <c r="I110">
-        <v>-0.1489888060753031</v>
+        <v>0.05125428253565142</v>
       </c>
       <c r="J110">
         <v>-0.1489888060753031</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>-0.1489888060753031</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>43617</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>41.61000061035156</v>
       </c>
       <c r="F111">
-        <v>40.63307952880859</v>
+        <v>40.63308334350586</v>
       </c>
       <c r="G111">
         <v>19900</v>
@@ -3878,13 +4205,16 @@
         <v>0.008971845703826808</v>
       </c>
       <c r="I111">
-        <v>-0.1208536023539736</v>
+        <v>0.05101652610683304</v>
       </c>
       <c r="J111">
         <v>-0.1208536023539736</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>-0.1208536023539736</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>43647</v>
       </c>
@@ -3910,13 +4240,16 @@
         <v>-0.02715695870079171</v>
       </c>
       <c r="I112">
-        <v>-0.1400042531402974</v>
+        <v>0.05089257817335059</v>
       </c>
       <c r="J112">
         <v>-0.1400042531402974</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>-0.1400042531402974</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>43678</v>
       </c>
@@ -3942,13 +4275,16 @@
         <v>-0.0219861511786783</v>
       </c>
       <c r="I113">
-        <v>-0.142516748479822</v>
+        <v>0.05073899563889218</v>
       </c>
       <c r="J113">
         <v>-0.142516748479822</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>-0.142516748479822</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>43709</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>40.95999908447266</v>
       </c>
       <c r="F114">
-        <v>39.99834060668945</v>
+        <v>39.99833679199219</v>
       </c>
       <c r="G114">
         <v>2500</v>
@@ -3974,13 +4310,16 @@
         <v>0.03460467104330678</v>
       </c>
       <c r="I114">
-        <v>-0.09119149407989791</v>
+        <v>0.0505751585020204</v>
       </c>
       <c r="J114">
         <v>-0.09119149407989791</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>-0.09119149407989791</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>43739</v>
       </c>
@@ -4006,13 +4345,16 @@
         <v>0.05346685767472215</v>
       </c>
       <c r="I115">
-        <v>0.04707601272762996</v>
+        <v>0.05053284590311348</v>
       </c>
       <c r="J115">
         <v>0.04707601272762996</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.04707601272762996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>43770</v>
       </c>
@@ -4038,13 +4380,16 @@
         <v>0.04333716954246802</v>
       </c>
       <c r="I116">
-        <v>0.138305975378564</v>
+        <v>0.0504170301927887</v>
       </c>
       <c r="J116">
         <v>0.138305975378564</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.138305975378564</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>43800</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>46.36999893188477</v>
       </c>
       <c r="F117">
-        <v>45.70044708251953</v>
+        <v>45.70044326782227</v>
       </c>
       <c r="G117">
         <v>13600</v>
@@ -4070,13 +4415,16 @@
         <v>0.02998663839169935</v>
       </c>
       <c r="I117">
-        <v>0.2529046483340616</v>
+        <v>0.05023581575103658</v>
       </c>
       <c r="J117">
         <v>0.2529046483340616</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.2529046483340616</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>43831</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>44.40999984741211</v>
       </c>
       <c r="F118">
-        <v>43.76874923706055</v>
+        <v>43.76874542236328</v>
       </c>
       <c r="G118">
         <v>7000</v>
@@ -4102,13 +4450,16 @@
         <v>-0.04226868944620421</v>
       </c>
       <c r="I118">
-        <v>0.1119179112268149</v>
+        <v>0.05023919146388991</v>
       </c>
       <c r="J118">
         <v>0.1119179112268149</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.1119179112268149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>43862</v>
       </c>
@@ -4134,13 +4485,16 @@
         <v>-0.08534116029158678</v>
       </c>
       <c r="I119">
-        <v>-0.02096897352100036</v>
+        <v>0.05076317784474133</v>
       </c>
       <c r="J119">
         <v>-0.02096897352100036</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>-0.02096897352100036</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>43891</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>31.43000030517578</v>
       </c>
       <c r="F120">
-        <v>30.97617149353027</v>
+        <v>30.97616958618164</v>
       </c>
       <c r="G120">
         <v>15300</v>
@@ -4166,13 +4520,16 @@
         <v>-0.2262432020768783</v>
       </c>
       <c r="I120">
-        <v>-0.2450156257803154</v>
+        <v>0.05492943532398638</v>
       </c>
       <c r="J120">
         <v>-0.2450156257803154</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>-0.2450156257803154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>43922</v>
       </c>
@@ -4198,13 +4555,16 @@
         <v>0.1027680404350624</v>
       </c>
       <c r="I121">
-        <v>-0.198241956640578</v>
+        <v>0.05542032260594999</v>
       </c>
       <c r="J121">
         <v>-0.198241956640578</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>-0.198241956640578</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>43952</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>36.84000015258789</v>
       </c>
       <c r="F122">
-        <v>36.30805587768555</v>
+        <v>36.30805206298828</v>
       </c>
       <c r="G122">
         <v>4700</v>
@@ -4230,13 +4590,16 @@
         <v>0.06289671998768198</v>
       </c>
       <c r="I122">
-        <v>-0.1066925641803826</v>
+        <v>0.05542935081872282</v>
       </c>
       <c r="J122">
         <v>-0.1066925641803826</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>-0.1066925641803826</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>43983</v>
       </c>
@@ -4262,13 +4625,16 @@
         <v>0.02741580665987731</v>
       </c>
       <c r="I123">
-        <v>-0.09036294354908203</v>
+        <v>0.05524454346684812</v>
       </c>
       <c r="J123">
         <v>-0.09036294354908203</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>-0.09036294354908203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>44013</v>
       </c>
@@ -4294,13 +4660,16 @@
         <v>0.0573316267139683</v>
       </c>
       <c r="I124">
-        <v>-0.01136361387535834</v>
+        <v>0.05474695461955498</v>
       </c>
       <c r="J124">
         <v>-0.01136361387535834</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>-0.01136361387535834</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>44044</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>42.45000076293945</v>
       </c>
       <c r="F125">
-        <v>42.10332870483398</v>
+        <v>42.10333251953125</v>
       </c>
       <c r="G125">
         <v>4300</v>
@@ -4326,13 +4695,16 @@
         <v>0.0607196471109579</v>
       </c>
       <c r="I125">
-        <v>0.07224047990221116</v>
+        <v>0.05403461666759232</v>
       </c>
       <c r="J125">
         <v>0.07224047990221116</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.07224047990221116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>44075</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>40.06000137329102</v>
       </c>
       <c r="F126">
-        <v>39.73284530639648</v>
+        <v>39.73284912109375</v>
       </c>
       <c r="G126">
         <v>29900</v>
@@ -4358,13 +4730,16 @@
         <v>-0.05630151582317522</v>
       </c>
       <c r="I126">
-        <v>-0.02197260086177144</v>
+        <v>0.05412979541747887</v>
       </c>
       <c r="J126">
         <v>-0.02197260086177144</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>-0.02197260086177144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>44105</v>
       </c>
@@ -4390,13 +4765,16 @@
         <v>0.02321518405627998</v>
       </c>
       <c r="I127">
-        <v>-0.05005793212119969</v>
+        <v>0.05410787530460166</v>
       </c>
       <c r="J127">
         <v>-0.05005793212119969</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>-0.05005793212119969</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>44136</v>
       </c>
@@ -4422,13 +4800,16 @@
         <v>0.155647645576203</v>
       </c>
       <c r="I128">
-        <v>0.05219898823248093</v>
+        <v>0.05501552866951228</v>
       </c>
       <c r="J128">
         <v>0.05219898823248093</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.05219898823248093</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>44166</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>50.5</v>
       </c>
       <c r="F129">
-        <v>50.09989929199219</v>
+        <v>50.09989547729492</v>
       </c>
       <c r="G129">
         <v>16900</v>
@@ -4454,13 +4835,16 @@
         <v>0.06607559929684581</v>
       </c>
       <c r="I129">
-        <v>0.0890662316853188</v>
+        <v>0.05483292145761745</v>
       </c>
       <c r="J129">
         <v>0.0890662316853188</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.0890662316853188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>44197</v>
       </c>
@@ -4486,13 +4870,16 @@
         <v>-0.04514849067914606</v>
       </c>
       <c r="I130">
-        <v>0.08579151962129616</v>
+        <v>0.05505610501255816</v>
       </c>
       <c r="J130">
         <v>0.08579151962129616</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.08579151962129616</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>44228</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>51.08000183105469</v>
       </c>
       <c r="F131">
-        <v>50.67530822753906</v>
+        <v>50.6753044128418</v>
       </c>
       <c r="G131">
         <v>7300</v>
@@ -4518,13 +4905,16 @@
         <v>0.05931150016486586</v>
       </c>
       <c r="I131">
-        <v>0.2575086945893372</v>
+        <v>0.05498043599863561</v>
       </c>
       <c r="J131">
         <v>0.2575086945893372</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.2575086945893372</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>44256</v>
       </c>
@@ -4550,13 +4940,16 @@
         <v>0.07713387794582283</v>
       </c>
       <c r="I132">
-        <v>0.7505567904402206</v>
+        <v>0.05520554944301461</v>
       </c>
       <c r="J132">
         <v>0.7505567904402206</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.7505567904402206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>44287</v>
       </c>
@@ -4582,13 +4975,16 @@
         <v>0.05034533687236298</v>
       </c>
       <c r="I133">
-        <v>0.6673399068073635</v>
+        <v>0.05454458731819973</v>
       </c>
       <c r="J133">
         <v>0.6673399068073635</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.6673399068073635</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>44317</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>60.02999877929688</v>
       </c>
       <c r="F134">
-        <v>59.55439376831055</v>
+        <v>59.55438995361328</v>
       </c>
       <c r="G134">
         <v>5100</v>
@@ -4614,13 +5010,16 @@
         <v>0.03876099374083375</v>
       </c>
       <c r="I134">
-        <v>0.6294787874771484</v>
+        <v>0.05449927860652663</v>
       </c>
       <c r="J134">
         <v>0.6294787874771484</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.6294787874771484</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>44348</v>
       </c>
@@ -4646,13 +5045,16 @@
         <v>-0.04347827192113318</v>
       </c>
       <c r="I135">
-        <v>0.5170409639039926</v>
+        <v>0.05465729957513724</v>
       </c>
       <c r="J135">
         <v>0.5170409639039926</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.5170409639039926</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>44378</v>
       </c>
@@ -4678,13 +5080,16 @@
         <v>0.01480324479142991</v>
       </c>
       <c r="I136">
-        <v>0.4560219837893478</v>
+        <v>0.0543350053399814</v>
       </c>
       <c r="J136">
         <v>0.4560219837893478</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.4560219837893478</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>44409</v>
       </c>
@@ -4710,13 +5115,16 @@
         <v>0.05920715180773239</v>
       </c>
       <c r="I137">
-        <v>0.4539458212351117</v>
+        <v>0.05386767465963079</v>
       </c>
       <c r="J137">
         <v>0.4539458212351117</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.4539458212351117</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>44440</v>
       </c>
@@ -4742,13 +5150,16 @@
         <v>-0.05719381925109313</v>
       </c>
       <c r="I138">
-        <v>0.4525710592088417</v>
+        <v>0.05364736673659212</v>
       </c>
       <c r="J138">
         <v>0.4525710592088417</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.4525710592088417</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>44470</v>
       </c>
@@ -4774,13 +5185,16 @@
         <v>0.01735697130205605</v>
       </c>
       <c r="I139">
-        <v>0.44425465574057</v>
+        <v>0.05284303510374012</v>
       </c>
       <c r="J139">
         <v>0.44425465574057</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.44425465574057</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>44501</v>
       </c>
@@ -4806,13 +5220,16 @@
         <v>-0.1146959599327917</v>
       </c>
       <c r="I140">
-        <v>0.1063964751777715</v>
+        <v>0.05382831155258433</v>
       </c>
       <c r="J140">
         <v>0.1063964751777715</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.1063964751777715</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>44531</v>
       </c>
@@ -4820,28 +5237,66 @@
         <v>57</v>
       </c>
       <c r="C141">
-        <v>57.09000015258789</v>
+        <v>57.15000152587891</v>
       </c>
       <c r="D141">
-        <v>56.95000076293945</v>
+        <v>56.81000137329102</v>
       </c>
       <c r="E141">
-        <v>56.99689865112305</v>
+        <v>56.97000122070312</v>
       </c>
       <c r="F141">
-        <v>56.99689865112305</v>
+        <v>56.97000122070312</v>
       </c>
       <c r="G141">
-        <v>3701</v>
+        <v>16500</v>
       </c>
       <c r="H141">
-        <v>0.08751953476560503</v>
+        <v>0.08700632296445576</v>
       </c>
       <c r="I141">
-        <v>0.1286514584380802</v>
+        <v>0.054260312857303</v>
       </c>
       <c r="J141">
-        <v>0.1286514584380802</v>
+        <v>0.1281188360535273</v>
+      </c>
+      <c r="K141">
+        <v>0.1281188360535273</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B142">
+        <v>57.27000045776367</v>
+      </c>
+      <c r="C142">
+        <v>57.45999908447266</v>
+      </c>
+      <c r="D142">
+        <v>57.07070159912109</v>
+      </c>
+      <c r="E142">
+        <v>57.27000045776367</v>
+      </c>
+      <c r="F142">
+        <v>57.27000045776367</v>
+      </c>
+      <c r="G142">
+        <v>28445</v>
+      </c>
+      <c r="H142">
+        <v>0.005265915931760956</v>
+      </c>
+      <c r="I142">
+        <v>0.05409543752553433</v>
+      </c>
+      <c r="J142">
+        <v>0.1876814394018504</v>
+      </c>
+      <c r="K142">
+        <v>0.1876814394018504</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EIRL.xlsx
+++ b/etf_dfs/EIRL.xlsx
@@ -508,7 +508,7 @@
         <v>20.02000045776367</v>
       </c>
       <c r="F2" t="n">
-        <v>16.49776840209961</v>
+        <v>16.49777603149414</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>18.88999938964844</v>
       </c>
       <c r="F5" t="n">
-        <v>15.59282684326172</v>
+        <v>15.5928258895874</v>
       </c>
       <c r="G5" t="n">
         <v>500</v>
@@ -626,7 +626,7 @@
         <v>20.04999923706055</v>
       </c>
       <c r="F6" t="n">
-        <v>16.55035400390625</v>
+        <v>16.55035018920898</v>
       </c>
       <c r="G6" t="n">
         <v>3400</v>
@@ -657,7 +657,7 @@
         <v>20.65999984741211</v>
       </c>
       <c r="F7" t="n">
-        <v>17.05387878417969</v>
+        <v>17.05388259887695</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -688,7 +688,7 @@
         <v>18.77000045776367</v>
       </c>
       <c r="F8" t="n">
-        <v>15.49377250671387</v>
+        <v>15.49377059936523</v>
       </c>
       <c r="G8" t="n">
         <v>4200</v>
@@ -781,7 +781,7 @@
         <v>21.89999961853027</v>
       </c>
       <c r="F11" t="n">
-        <v>18.45061683654785</v>
+        <v>18.45061874389648</v>
       </c>
       <c r="G11" t="n">
         <v>4200</v>
@@ -812,7 +812,7 @@
         <v>21.20000076293945</v>
       </c>
       <c r="F12" t="n">
-        <v>17.86087226867676</v>
+        <v>17.86087417602539</v>
       </c>
       <c r="G12" t="n">
         <v>27100</v>
@@ -843,7 +843,7 @@
         <v>23.54999923706055</v>
       </c>
       <c r="F13" t="n">
-        <v>19.84073829650879</v>
+        <v>19.84073638916016</v>
       </c>
       <c r="G13" t="n">
         <v>1700</v>
@@ -909,7 +909,7 @@
         <v>22.45999908447266</v>
       </c>
       <c r="F15" t="n">
-        <v>19.1776008605957</v>
+        <v>19.17760276794434</v>
       </c>
       <c r="G15" t="n">
         <v>500</v>
@@ -944,7 +944,7 @@
         <v>21.21999931335449</v>
       </c>
       <c r="F16" t="n">
-        <v>18.11881828308105</v>
+        <v>18.11882209777832</v>
       </c>
       <c r="G16" t="n">
         <v>500</v>
@@ -979,7 +979,7 @@
         <v>19.5</v>
       </c>
       <c r="F17" t="n">
-        <v>16.65018653869629</v>
+        <v>16.65018844604492</v>
       </c>
       <c r="G17" t="n">
         <v>13500</v>
@@ -1014,7 +1014,7 @@
         <v>18.03000068664551</v>
       </c>
       <c r="F18" t="n">
-        <v>15.39501953125</v>
+        <v>15.39502239227295</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>19.13999938964844</v>
       </c>
       <c r="F20" t="n">
-        <v>16.34280395507812</v>
+        <v>16.34279823303223</v>
       </c>
       <c r="G20" t="n">
         <v>16600</v>
@@ -1189,7 +1189,7 @@
         <v>22.28000068664551</v>
       </c>
       <c r="F23" t="n">
-        <v>19.14596176147461</v>
+        <v>19.14595794677734</v>
       </c>
       <c r="G23" t="n">
         <v>2400</v>
@@ -1259,7 +1259,7 @@
         <v>22.65999984741211</v>
       </c>
       <c r="F25" t="n">
-        <v>19.47250175476074</v>
+        <v>19.47250366210938</v>
       </c>
       <c r="G25" t="n">
         <v>20800</v>
@@ -1294,7 +1294,7 @@
         <v>20.21999931335449</v>
       </c>
       <c r="F26" t="n">
-        <v>17.37572860717773</v>
+        <v>17.37573051452637</v>
       </c>
       <c r="G26" t="n">
         <v>200</v>
@@ -1329,7 +1329,7 @@
         <v>20.63999938964844</v>
       </c>
       <c r="F27" t="n">
-        <v>17.94994354248047</v>
+        <v>17.94994163513184</v>
       </c>
       <c r="G27" t="n">
         <v>500</v>
@@ -1364,7 +1364,7 @@
         <v>20.04999923706055</v>
       </c>
       <c r="F28" t="n">
-        <v>17.43683624267578</v>
+        <v>17.43683815002441</v>
       </c>
       <c r="G28" t="n">
         <v>4900</v>
@@ -1469,7 +1469,7 @@
         <v>22.40999984741211</v>
       </c>
       <c r="F31" t="n">
-        <v>19.48925399780273</v>
+        <v>19.48925590515137</v>
       </c>
       <c r="G31" t="n">
         <v>1900</v>
@@ -1504,7 +1504,7 @@
         <v>23.60000038146973</v>
       </c>
       <c r="F32" t="n">
-        <v>20.52415657043457</v>
+        <v>20.5241641998291</v>
       </c>
       <c r="G32" t="n">
         <v>8500</v>
@@ -1539,7 +1539,7 @@
         <v>25.09000015258789</v>
       </c>
       <c r="F33" t="n">
-        <v>21.90351295471191</v>
+        <v>21.90351104736328</v>
       </c>
       <c r="G33" t="n">
         <v>49100</v>
@@ -1609,7 +1609,7 @@
         <v>27</v>
       </c>
       <c r="F35" t="n">
-        <v>23.5709400177002</v>
+        <v>23.57093811035156</v>
       </c>
       <c r="G35" t="n">
         <v>16600</v>
@@ -1679,7 +1679,7 @@
         <v>28.61000061035156</v>
       </c>
       <c r="F37" t="n">
-        <v>24.97646141052246</v>
+        <v>24.97646903991699</v>
       </c>
       <c r="G37" t="n">
         <v>9300</v>
@@ -1749,7 +1749,7 @@
         <v>28.70999908447266</v>
       </c>
       <c r="F39" t="n">
-        <v>25.29759407043457</v>
+        <v>25.2975902557373</v>
       </c>
       <c r="G39" t="n">
         <v>20800</v>
@@ -1784,7 +1784,7 @@
         <v>30.89999961853027</v>
       </c>
       <c r="F40" t="n">
-        <v>27.22729301452637</v>
+        <v>27.22729682922363</v>
       </c>
       <c r="G40" t="n">
         <v>29400</v>
@@ -1819,7 +1819,7 @@
         <v>31.52000045776367</v>
       </c>
       <c r="F41" t="n">
-        <v>27.77360534667969</v>
+        <v>27.77360343933105</v>
       </c>
       <c r="G41" t="n">
         <v>9200</v>
@@ -1854,7 +1854,7 @@
         <v>33.16999816894531</v>
       </c>
       <c r="F42" t="n">
-        <v>29.22748374938965</v>
+        <v>29.22748565673828</v>
       </c>
       <c r="G42" t="n">
         <v>11100</v>
@@ -1889,7 +1889,7 @@
         <v>34.5</v>
       </c>
       <c r="F43" t="n">
-        <v>30.3994083404541</v>
+        <v>30.39940643310547</v>
       </c>
       <c r="G43" t="n">
         <v>34100</v>
@@ -1924,7 +1924,7 @@
         <v>35.47999954223633</v>
       </c>
       <c r="F44" t="n">
-        <v>31.2629280090332</v>
+        <v>31.2629222869873</v>
       </c>
       <c r="G44" t="n">
         <v>10000</v>
@@ -1959,7 +1959,7 @@
         <v>35.84999847412109</v>
       </c>
       <c r="F45" t="n">
-        <v>31.88551139831543</v>
+        <v>31.88551902770996</v>
       </c>
       <c r="G45" t="n">
         <v>31600</v>
@@ -1994,7 +1994,7 @@
         <v>35.79000091552734</v>
       </c>
       <c r="F46" t="n">
-        <v>31.83215522766113</v>
+        <v>31.83216094970703</v>
       </c>
       <c r="G46" t="n">
         <v>73800</v>
@@ -2064,7 +2064,7 @@
         <v>39.29000091552734</v>
       </c>
       <c r="F48" t="n">
-        <v>34.94510650634766</v>
+        <v>34.94510269165039</v>
       </c>
       <c r="G48" t="n">
         <v>31100</v>
@@ -2134,7 +2134,7 @@
         <v>37.11999893188477</v>
       </c>
       <c r="F50" t="n">
-        <v>33.01507568359375</v>
+        <v>33.01507186889648</v>
       </c>
       <c r="G50" t="n">
         <v>31000</v>
@@ -2169,7 +2169,7 @@
         <v>35.81000137329102</v>
       </c>
       <c r="F51" t="n">
-        <v>32.16369247436523</v>
+        <v>32.16368865966797</v>
       </c>
       <c r="G51" t="n">
         <v>167900</v>
@@ -2204,7 +2204,7 @@
         <v>34.65000152587891</v>
       </c>
       <c r="F52" t="n">
-        <v>31.12180709838867</v>
+        <v>31.12180137634277</v>
       </c>
       <c r="G52" t="n">
         <v>45300</v>
@@ -2239,7 +2239,7 @@
         <v>35.27000045776367</v>
       </c>
       <c r="F53" t="n">
-        <v>31.67867279052734</v>
+        <v>31.67868041992188</v>
       </c>
       <c r="G53" t="n">
         <v>13900</v>
@@ -2274,7 +2274,7 @@
         <v>34.45000076293945</v>
       </c>
       <c r="F54" t="n">
-        <v>30.94216918945312</v>
+        <v>30.94217872619629</v>
       </c>
       <c r="G54" t="n">
         <v>3400</v>
@@ -2344,7 +2344,7 @@
         <v>35.31000137329102</v>
       </c>
       <c r="F56" t="n">
-        <v>31.71460342407227</v>
+        <v>31.7145938873291</v>
       </c>
       <c r="G56" t="n">
         <v>6700</v>
@@ -2414,7 +2414,7 @@
         <v>33.90999984741211</v>
       </c>
       <c r="F58" t="n">
-        <v>30.83915138244629</v>
+        <v>30.83914184570312</v>
       </c>
       <c r="G58" t="n">
         <v>15700</v>
@@ -2449,7 +2449,7 @@
         <v>38.20000076293945</v>
       </c>
       <c r="F59" t="n">
-        <v>34.74064636230469</v>
+        <v>34.74065399169922</v>
       </c>
       <c r="G59" t="n">
         <v>15300</v>
@@ -2519,7 +2519,7 @@
         <v>39.2599983215332</v>
       </c>
       <c r="F61" t="n">
-        <v>35.70465469360352</v>
+        <v>35.70464706420898</v>
       </c>
       <c r="G61" t="n">
         <v>45900</v>
@@ -2554,7 +2554,7 @@
         <v>39.56000137329102</v>
       </c>
       <c r="F62" t="n">
-        <v>35.97748947143555</v>
+        <v>35.97748184204102</v>
       </c>
       <c r="G62" t="n">
         <v>40700</v>
@@ -2624,7 +2624,7 @@
         <v>41.11999893188477</v>
       </c>
       <c r="F64" t="n">
-        <v>37.81473159790039</v>
+        <v>37.81473541259766</v>
       </c>
       <c r="G64" t="n">
         <v>46800</v>
@@ -2659,7 +2659,7 @@
         <v>40.5099983215332</v>
       </c>
       <c r="F65" t="n">
-        <v>37.25375747680664</v>
+        <v>37.25376892089844</v>
       </c>
       <c r="G65" t="n">
         <v>19900</v>
@@ -2694,7 +2694,7 @@
         <v>38.93000030517578</v>
       </c>
       <c r="F66" t="n">
-        <v>35.80076599121094</v>
+        <v>35.8007698059082</v>
       </c>
       <c r="G66" t="n">
         <v>39600</v>
@@ -2729,7 +2729,7 @@
         <v>39.43999862670898</v>
       </c>
       <c r="F67" t="n">
-        <v>36.26977157592773</v>
+        <v>36.26977920532227</v>
       </c>
       <c r="G67" t="n">
         <v>47900</v>
@@ -2799,7 +2799,7 @@
         <v>41.56000137329102</v>
       </c>
       <c r="F69" t="n">
-        <v>38.45545196533203</v>
+        <v>38.45545959472656</v>
       </c>
       <c r="G69" t="n">
         <v>73300</v>
@@ -2834,7 +2834,7 @@
         <v>38.77999877929688</v>
       </c>
       <c r="F70" t="n">
-        <v>35.88312149047852</v>
+        <v>35.88312911987305</v>
       </c>
       <c r="G70" t="n">
         <v>30600</v>
@@ -2869,7 +2869,7 @@
         <v>37.34999847412109</v>
       </c>
       <c r="F71" t="n">
-        <v>34.5599365234375</v>
+        <v>34.55994415283203</v>
       </c>
       <c r="G71" t="n">
         <v>37000</v>
@@ -3009,7 +3009,7 @@
         <v>35.93999862670898</v>
       </c>
       <c r="F75" t="n">
-        <v>33.51103591918945</v>
+        <v>33.51103210449219</v>
       </c>
       <c r="G75" t="n">
         <v>46700</v>
@@ -3079,7 +3079,7 @@
         <v>38.90999984741211</v>
       </c>
       <c r="F77" t="n">
-        <v>36.28031158447266</v>
+        <v>36.28030776977539</v>
       </c>
       <c r="G77" t="n">
         <v>25000</v>
@@ -3114,7 +3114,7 @@
         <v>38.0099983215332</v>
       </c>
       <c r="F78" t="n">
-        <v>35.44113540649414</v>
+        <v>35.44113922119141</v>
       </c>
       <c r="G78" t="n">
         <v>22800</v>
@@ -3149,7 +3149,7 @@
         <v>36.22000122070312</v>
       </c>
       <c r="F79" t="n">
-        <v>33.77211761474609</v>
+        <v>33.77211380004883</v>
       </c>
       <c r="G79" t="n">
         <v>23900</v>
@@ -3184,7 +3184,7 @@
         <v>36.40000152587891</v>
       </c>
       <c r="F80" t="n">
-        <v>33.93995666503906</v>
+        <v>33.93994903564453</v>
       </c>
       <c r="G80" t="n">
         <v>13800</v>
@@ -3219,7 +3219,7 @@
         <v>37.52999877929688</v>
       </c>
       <c r="F81" t="n">
-        <v>35.18486404418945</v>
+        <v>35.18487167358398</v>
       </c>
       <c r="G81" t="n">
         <v>19500</v>
@@ -3254,7 +3254,7 @@
         <v>38.54999923706055</v>
       </c>
       <c r="F82" t="n">
-        <v>36.14113998413086</v>
+        <v>36.14113616943359</v>
       </c>
       <c r="G82" t="n">
         <v>25400</v>
@@ -3289,7 +3289,7 @@
         <v>39.20000076293945</v>
       </c>
       <c r="F83" t="n">
-        <v>36.75052261352539</v>
+        <v>36.75052642822266</v>
       </c>
       <c r="G83" t="n">
         <v>7600</v>
@@ -3324,7 +3324,7 @@
         <v>40.06000137329102</v>
       </c>
       <c r="F84" t="n">
-        <v>37.55678176879883</v>
+        <v>37.55677795410156</v>
       </c>
       <c r="G84" t="n">
         <v>9700</v>
@@ -3359,7 +3359,7 @@
         <v>42.15000152587891</v>
       </c>
       <c r="F85" t="n">
-        <v>39.51618576049805</v>
+        <v>39.51618194580078</v>
       </c>
       <c r="G85" t="n">
         <v>8000</v>
@@ -3499,7 +3499,7 @@
         <v>43.79999923706055</v>
       </c>
       <c r="F89" t="n">
-        <v>41.38865280151367</v>
+        <v>41.38865661621094</v>
       </c>
       <c r="G89" t="n">
         <v>7400</v>
@@ -3534,7 +3534,7 @@
         <v>46.27999877929688</v>
       </c>
       <c r="F90" t="n">
-        <v>43.73211669921875</v>
+        <v>43.73212432861328</v>
       </c>
       <c r="G90" t="n">
         <v>40700</v>
@@ -3604,7 +3604,7 @@
         <v>46.33000183105469</v>
       </c>
       <c r="F92" t="n">
-        <v>43.77937316894531</v>
+        <v>43.77936935424805</v>
       </c>
       <c r="G92" t="n">
         <v>8200</v>
@@ -3639,7 +3639,7 @@
         <v>47.9900016784668</v>
       </c>
       <c r="F93" t="n">
-        <v>45.67678833007812</v>
+        <v>45.67678451538086</v>
       </c>
       <c r="G93" t="n">
         <v>5800</v>
@@ -3674,7 +3674,7 @@
         <v>49.06000137329102</v>
       </c>
       <c r="F94" t="n">
-        <v>46.69520568847656</v>
+        <v>46.69521331787109</v>
       </c>
       <c r="G94" t="n">
         <v>3100</v>
@@ -3709,7 +3709,7 @@
         <v>46.09000015258789</v>
       </c>
       <c r="F95" t="n">
-        <v>43.86836624145508</v>
+        <v>43.86837005615234</v>
       </c>
       <c r="G95" t="n">
         <v>125500</v>
@@ -3814,7 +3814,7 @@
         <v>48.45999908447266</v>
       </c>
       <c r="F98" t="n">
-        <v>46.12413024902344</v>
+        <v>46.12412643432617</v>
       </c>
       <c r="G98" t="n">
         <v>10300</v>
@@ -3849,7 +3849,7 @@
         <v>47.33000183105469</v>
       </c>
       <c r="F99" t="n">
-        <v>45.46008682250977</v>
+        <v>45.4600830078125</v>
       </c>
       <c r="G99" t="n">
         <v>49600</v>
@@ -3884,7 +3884,7 @@
         <v>47.06999969482422</v>
       </c>
       <c r="F100" t="n">
-        <v>45.21035385131836</v>
+        <v>45.21035766601562</v>
       </c>
       <c r="G100" t="n">
         <v>11700</v>
@@ -3989,7 +3989,7 @@
         <v>41.20999908447266</v>
       </c>
       <c r="F103" t="n">
-        <v>39.58186721801758</v>
+        <v>39.58187103271484</v>
       </c>
       <c r="G103" t="n">
         <v>8400</v>
@@ -4024,7 +4024,7 @@
         <v>39.54999923706055</v>
       </c>
       <c r="F104" t="n">
-        <v>37.98745727539062</v>
+        <v>37.98745346069336</v>
       </c>
       <c r="G104" t="n">
         <v>3000</v>
@@ -4164,7 +4164,7 @@
         <v>41.63000106811523</v>
       </c>
       <c r="F108" t="n">
-        <v>40.1183967590332</v>
+        <v>40.11839294433594</v>
       </c>
       <c r="G108" t="n">
         <v>4200</v>
@@ -4199,7 +4199,7 @@
         <v>43.22999954223633</v>
       </c>
       <c r="F109" t="n">
-        <v>41.66029357910156</v>
+        <v>41.66029739379883</v>
       </c>
       <c r="G109" t="n">
         <v>31300</v>
@@ -4234,7 +4234,7 @@
         <v>41.2400016784668</v>
       </c>
       <c r="F110" t="n">
-        <v>39.7425537109375</v>
+        <v>39.74254989624023</v>
       </c>
       <c r="G110" t="n">
         <v>9500</v>
@@ -4269,7 +4269,7 @@
         <v>41.61000061035156</v>
       </c>
       <c r="F111" t="n">
-        <v>40.63307952880859</v>
+        <v>40.63307189941406</v>
       </c>
       <c r="G111" t="n">
         <v>19900</v>
@@ -4304,7 +4304,7 @@
         <v>40.47999954223633</v>
       </c>
       <c r="F112" t="n">
-        <v>39.52960968017578</v>
+        <v>39.52960586547852</v>
       </c>
       <c r="G112" t="n">
         <v>71100</v>
@@ -4339,7 +4339,7 @@
         <v>39.59000015258789</v>
       </c>
       <c r="F113" t="n">
-        <v>38.66050338745117</v>
+        <v>38.66050720214844</v>
       </c>
       <c r="G113" t="n">
         <v>6200</v>
@@ -4374,7 +4374,7 @@
         <v>40.95999908447266</v>
       </c>
       <c r="F114" t="n">
-        <v>39.99833679199219</v>
+        <v>39.99833297729492</v>
       </c>
       <c r="G114" t="n">
         <v>2500</v>
@@ -4444,7 +4444,7 @@
         <v>45.02000045776367</v>
       </c>
       <c r="F116" t="n">
-        <v>43.96301651000977</v>
+        <v>43.96302032470703</v>
       </c>
       <c r="G116" t="n">
         <v>2000</v>
@@ -4479,7 +4479,7 @@
         <v>46.36999893188477</v>
       </c>
       <c r="F117" t="n">
-        <v>45.70044326782227</v>
+        <v>45.70044708251953</v>
       </c>
       <c r="G117" t="n">
         <v>13600</v>
@@ -4549,7 +4549,7 @@
         <v>40.61999893188477</v>
       </c>
       <c r="F119" t="n">
-        <v>40.03346633911133</v>
+        <v>40.03347015380859</v>
       </c>
       <c r="G119" t="n">
         <v>14300</v>
@@ -4584,7 +4584,7 @@
         <v>31.43000030517578</v>
       </c>
       <c r="F120" t="n">
-        <v>30.97617149353027</v>
+        <v>30.97616958618164</v>
       </c>
       <c r="G120" t="n">
         <v>15300</v>
@@ -4654,7 +4654,7 @@
         <v>36.84000015258789</v>
       </c>
       <c r="F122" t="n">
-        <v>36.30805206298828</v>
+        <v>36.30805587768555</v>
       </c>
       <c r="G122" t="n">
         <v>4700</v>
@@ -4689,7 +4689,7 @@
         <v>37.84999847412109</v>
       </c>
       <c r="F123" t="n">
-        <v>37.54088973999023</v>
+        <v>37.5408935546875</v>
       </c>
       <c r="G123" t="n">
         <v>3200</v>
@@ -4724,7 +4724,7 @@
         <v>40.02000045776367</v>
       </c>
       <c r="F124" t="n">
-        <v>39.69317245483398</v>
+        <v>39.69317626953125</v>
       </c>
       <c r="G124" t="n">
         <v>5300</v>
@@ -4794,7 +4794,7 @@
         <v>40.06000137329102</v>
       </c>
       <c r="F126" t="n">
-        <v>39.73284912109375</v>
+        <v>39.73284530639648</v>
       </c>
       <c r="G126" t="n">
         <v>29900</v>
@@ -4864,7 +4864,7 @@
         <v>47.36999893188477</v>
       </c>
       <c r="F128" t="n">
-        <v>46.98315048217773</v>
+        <v>46.98314666748047</v>
       </c>
       <c r="G128" t="n">
         <v>13600</v>
@@ -5342,7 +5342,7 @@
         <v>44562</v>
       </c>
       <c r="B142" t="n">
-        <v>57.27000045776367</v>
+        <v>57.90999984741211</v>
       </c>
       <c r="C142" t="n">
         <v>57.93999862670898</v>
@@ -5357,7 +5357,7 @@
         <v>57.93999862670898</v>
       </c>
       <c r="G142" t="n">
-        <v>347</v>
+        <v>916</v>
       </c>
       <c r="H142" t="n">
         <v>0.01702645928070234</v>

--- a/etf_dfs/EIRL.xlsx
+++ b/etf_dfs/EIRL.xlsx
@@ -1,40 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Adj Close</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>EIRL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +87,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,4953 +406,4900 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Volatility</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Trend</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>EIRL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>40299</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>20.02000045776367</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>20.02000045776367</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>20.02000045776367</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>20.02000045776367</v>
       </c>
-      <c r="F2" t="n">
-        <v>16.49777603149414</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>16.49777793884277</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
         <v>40330</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>19.09000015258789</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>19.09000015258789</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>19.09000015258789</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>19.09000015258789</v>
       </c>
-      <c r="F3" t="n">
-        <v>15.75791645050049</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>15.75791263580322</v>
+      </c>
+      <c r="G3">
         <v>300</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-0.04645356063491657</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
         <v>40360</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>21.04000091552734</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>21.04000091552734</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>21.04000091552734</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>21.04000091552734</v>
       </c>
-      <c r="F4" t="n">
-        <v>17.3675537109375</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>17.36754989624023</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.102147760468986</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.1050770018458491</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
         <v>40391</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>18.70000076293945</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>18.88999938964844</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>18.70000076293945</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>18.88999938964844</v>
       </c>
-      <c r="F5" t="n">
-        <v>15.5928258895874</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>15.59282684326172</v>
+      </c>
+      <c r="G5">
         <v>500</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>-0.1021863798633309</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.1056258654231365</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>40422</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>20.3700008392334</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>20.45999908447266</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>19.98999977111816</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>20.04999923706055</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>16.55035018920898</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3400</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.06140814636806069</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.09442720904038604</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
         <v>40452</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>20.65999984741211</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>20.65999984741211</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>20.65999984741211</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>20.65999984741211</v>
       </c>
-      <c r="F7" t="n">
-        <v>17.05388259887695</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7">
+        <v>17.05387687683105</v>
+      </c>
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.03042397174878864</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.0826431954159554</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>40483</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>18.79999923706055</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>19.60000038146973</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>18.29000091552734</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>18.77000045776367</v>
       </c>
-      <c r="F8" t="n">
-        <v>15.49377059936523</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8">
+        <v>15.49376964569092</v>
+      </c>
+      <c r="G8">
         <v>4200</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>-0.09148109407586369</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.08455139169214312</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
         <v>40513</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>20.60000038146973</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>20.60000038146973</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>20.32999992370605</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>20.35000038146973</v>
       </c>
-      <c r="F9" t="n">
-        <v>17.14475631713867</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>17.14475440979004</v>
+      </c>
+      <c r="G9">
         <v>4500</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.08417687187921907</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.08463509482383361</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
         <v>40544</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>20.88999938964844</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>20.88999938964844</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>20.5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>20.5</v>
       </c>
-      <c r="F10" t="n">
-        <v>17.27112770080566</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>17.2711353302002</v>
+      </c>
+      <c r="G10">
         <v>800</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.007370988487393815</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.07835986554266566</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
         <v>40575</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>21.97999954223633</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>21.97999954223633</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>21.89999961853027</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>21.89999961853027</v>
       </c>
-      <c r="F11" t="n">
-        <v>18.45061874389648</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>18.45061683654785</v>
+      </c>
+      <c r="G11">
         <v>4200</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.06829266431854997</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.07621277349136789</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
         <v>40603</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>21.3799991607666</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>21.38999938964844</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>21.10000038146973</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>21.20000076293945</v>
       </c>
-      <c r="F12" t="n">
-        <v>17.86087417602539</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12">
+        <v>17.86087226867676</v>
+      </c>
+      <c r="G12">
         <v>27100</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>-0.0319634186202693</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.07322497477067445</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>40634</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>23.48999977111816</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>23.54999923706055</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>23.48999977111816</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>23.54999923706055</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>19.84073638916016</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1700</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.1108489806391526</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.07605321965763535</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>40664</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>22.89999961853027</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>23.02000045776367</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>22.77000045776367</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>22.8700008392334</v>
       </c>
-      <c r="F14" t="n">
-        <v>19.26784133911133</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14">
+        <v>19.2678394317627</v>
+      </c>
+      <c r="G14">
         <v>8800</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>-0.02887466750984169</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.07373969635324069</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0.1423576581570212</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>0.1423576581570212</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>40695</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>22.45999908447266</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>22.45999908447266</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>22.45999908447266</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>22.45999908447266</v>
       </c>
-      <c r="F15" t="n">
-        <v>19.17760276794434</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15">
+        <v>19.1776008605957</v>
+      </c>
+      <c r="G15">
         <v>500</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>-0.01792749189835563</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>0.07114127387129233</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0.1765321584572077</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>0.1765321584572077</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>40725</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>21.21999931335449</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>21.21999931335449</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>21.21999931335449</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>21.21999931335449</v>
       </c>
-      <c r="F16" t="n">
-        <v>18.11882209777832</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>18.11882019042969</v>
+      </c>
+      <c r="G16">
         <v>500</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>-0.05520925296810975</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>0.0706180842529719</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>0.008555056558686269</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>0.008555056558686269</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
         <v>40756</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>19.47999954223633</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>19.51000022888184</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>19.45999908447266</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>19.5</v>
       </c>
-      <c r="F17" t="n">
-        <v>16.65018844604492</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17">
+        <v>16.65019226074219</v>
+      </c>
+      <c r="G17">
         <v>13500</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>-0.08105557818147691</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.07170366387261708</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>0.03229225145903603</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>0.03229225145903603</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
         <v>40787</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>18.03000068664551</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>18.03000068664551</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>18.03000068664551</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>18.03000068664551</v>
       </c>
-      <c r="F18" t="n">
-        <v>15.39502239227295</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>15.39502048492432</v>
+      </c>
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>-0.07538458017202521</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>0.07183199808208328</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>-0.1007480612109581</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>-0.1007480612109581</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
         <v>40817</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>20.60000038146973</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>20.60000038146973</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>19.8799991607666</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>20.04999923706055</v>
       </c>
-      <c r="F19" t="n">
-        <v>17.11981010437012</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19">
+        <v>17.11980819702148</v>
+      </c>
+      <c r="G19">
         <v>83700</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>0.1120354117296964</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.07503967200067721</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>-0.02952568319732929</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>-0.02952568319732929</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
         <v>40848</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>18.6299991607666</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>19.13999938964844</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>18.6299991607666</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>19.13999938964844</v>
       </c>
-      <c r="F20" t="n">
-        <v>16.34279823303223</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20">
+        <v>16.34280014038086</v>
+      </c>
+      <c r="G20">
         <v>16600</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>-0.04538652778250785</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.07367676883023194</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.01971224948647921</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>0.01971224948647921</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
         <v>40878</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>18.73999977111816</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>19.02000045776367</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>18.73999977111816</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>18.98999977111816</v>
       </c>
-      <c r="F21" t="n">
-        <v>16.31875038146973</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>16.31875228881836</v>
+      </c>
+      <c r="G21">
         <v>11200</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-0.00783697091502511</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.07162376979250229</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>-0.06683049557040543</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>-0.06683049557040543</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
         <v>40909</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>20.25</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>20.25</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>20.06999969482422</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>20.06999969482422</v>
       </c>
-      <c r="F22" t="n">
-        <v>17.2468318939209</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22">
+        <v>17.24683380126953</v>
+      </c>
+      <c r="G22">
         <v>3900</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>0.05687203458257128</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>0.07087881382223256</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>-0.02097562464272107</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>-0.02097562464272107</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
         <v>40940</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>22.38999938964844</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>22.54000091552734</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>22.28000068664551</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>22.28000068664551</v>
       </c>
-      <c r="F23" t="n">
-        <v>19.14595794677734</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="F23">
+        <v>19.14595985412598</v>
+      </c>
+      <c r="G23">
         <v>2400</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>0.1101146499962937</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>0.07296698982273672</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>0.01735164724814431</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>0.01735164724814431</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
         <v>40969</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>23.11000061035156</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>23.11000061035156</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>22.6299991607666</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>23.10000038146973</v>
       </c>
-      <c r="F24" t="n">
-        <v>19.85061454772949</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="F24">
+        <v>19.85061073303223</v>
+      </c>
+      <c r="G24">
         <v>1800</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>0.03680429396556173</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.07147989194813523</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>0.08962262029026613</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>0.08962262029026613</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
         <v>41000</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>22.3700008392334</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>23.02000045776367</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>22.3700008392334</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>22.65999984741211</v>
       </c>
-      <c r="F25" t="n">
-        <v>19.47250366210938</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25">
+        <v>19.47250556945801</v>
+      </c>
+      <c r="G25">
         <v>20800</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>-0.01904764185244667</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>0.07007990962922613</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>-0.03779190736651272</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>-0.03779190736651272</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
         <v>41030</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>20.21999931335449</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>20.21999931335449</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>20.21999931335449</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>20.21999931335449</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>17.37573051452637</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>200</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>-0.1076787533313368</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.07247473369205805</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>-0.1158723842866171</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>-0.1158723842866171</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:11">
+      <c r="A27" s="2">
         <v>41061</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>20.3700008392334</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>20.63999938964844</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>20.3700008392334</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>20.63999938964844</v>
       </c>
-      <c r="F27" t="n">
-        <v>17.94994163513184</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27">
+        <v>17.94994354248047</v>
+      </c>
+      <c r="G27">
         <v>500</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>0.0207715178316823</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>0.07103858439522104</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>-0.08103293717774218</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>-0.08103293717774218</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
         <v>41091</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>20.10000038146973</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>20.17000007629395</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>20.04999923706055</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>20.04999923706055</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>17.43683815002441</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>4900</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-0.02858527955595735</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>0.06988948905779993</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>-0.05513666890449065</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>-0.05513666890449065</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
         <v>41122</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>21</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>21</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>21</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>21</v>
       </c>
-      <c r="F29" t="n">
-        <v>18.26302528381348</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="F29">
+        <v>18.26302719116211</v>
+      </c>
+      <c r="G29">
         <v>1400</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>0.04738158598946307</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>0.06907704754341557</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>0.07692307692307687</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>0.07692307692307687</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
         <v>41153</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>22.51000022888184</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>22.51000022888184</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>22.51000022888184</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>22.51000022888184</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>19.57622337341309</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>0.07190477280389684</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>0.06898774165246219</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>0.2484747294299652</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>0.2484747294299652</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
         <v>41183</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>22.70000076293945</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>22.70000076293945</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>22.40999984741211</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>22.40999984741211</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>19.48925590515137</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>1900</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>-0.004442486914834398</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>0.06777498177743442</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>0.1177057705812439</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>0.1177057705812439</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:11">
+      <c r="A32" s="2">
         <v>41214</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>24.32999992370605</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>24.32999992370605</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>23.54000091552734</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>23.60000038146973</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>20.5241641998291</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>8500</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>0.05310131825793096</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>0.06714667327896964</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>0.2330199129595276</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>0.2330199129595276</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
         <v>41244</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>24.54999923706055</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>25.29999923706055</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>24.54999923706055</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>25.09000015258789</v>
       </c>
-      <c r="F33" t="n">
-        <v>21.90351104736328</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33">
+        <v>21.90351295471191</v>
+      </c>
+      <c r="G33">
         <v>49100</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>0.06313558250143436</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>0.0667654201029</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>0.3212217195888123</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>0.3212217195888123</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
         <v>41275</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>26.64999961853027</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>26.64999961853027</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>26.46999931335449</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>26.5</v>
       </c>
-      <c r="F34" t="n">
-        <v>23.13443946838379</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="F34">
+        <v>23.13444328308105</v>
+      </c>
+      <c r="G34">
         <v>20800</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>0.05619768189864582</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>0.06619734388078526</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>0.3203786947158744</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>0.3203786947158744</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
         <v>41306</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>27.1200008392334</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>27.1200008392334</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>26.6200008392334</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>27</v>
       </c>
-      <c r="F35" t="n">
-        <v>23.57093811035156</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35">
+        <v>23.57093620300293</v>
+      </c>
+      <c r="G35">
         <v>16600</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>0.01886792452830188</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>0.06516948506561351</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>0.211849154752658</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>0.211849154752658</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
         <v>41334</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>27.86000061035156</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>28.44000053405762</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>27.86000061035156</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>28.43000030517578</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>24.8193244934082</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>25800</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>0.05296297426576957</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>0.06457364022475084</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>0.2307359236228261</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>0.2307359236228261</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
         <v>41365</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>28.72999954223633</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>28.72999954223633</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>28.52000045776367</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>28.61000061035156</v>
       </c>
-      <c r="F37" t="n">
-        <v>24.97646903991699</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37">
+        <v>24.97646522521973</v>
+      </c>
+      <c r="G37">
         <v>9300</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>0.006331350799986257</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>0.06362518683209233</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>0.2625772640337849</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>0.2625772640337849</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
         <v>41395</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>29.29999923706055</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>29.47999954223633</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>29.18000030517578</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>29.29999923706055</v>
       </c>
-      <c r="F38" t="n">
-        <v>25.57883071899414</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="F38">
+        <v>25.57882881164551</v>
+      </c>
+      <c r="G38">
         <v>51400</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>0.02411739293914361</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>0.06274102039979935</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>0.449060347777019</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>0.449060347777019</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
         <v>41426</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>28.64999961853027</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>28.75</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>28.54000091552734</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>28.70999908447266</v>
       </c>
-      <c r="F39" t="n">
-        <v>25.2975902557373</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="F39">
+        <v>25.29759216308594</v>
+      </c>
+      <c r="G39">
         <v>20800</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>-0.02013652450344161</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>0.06209640789895633</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>0.390988368869408</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>0.390988368869408</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
         <v>41456</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>30.79000091552734</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>31.07999992370605</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>30.79000091552734</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>30.89999961853027</v>
       </c>
-      <c r="F40" t="n">
-        <v>27.22729682922363</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>27.227294921875</v>
+      </c>
+      <c r="G40">
         <v>29400</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>0.07628006283156052</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>0.06214192376674411</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>0.5411471717871448</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>0.5411471717871448</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
         <v>41487</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>31.59000015258789</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>31.59000015258789</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>31.47999954223633</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>31.52000045776367</v>
       </c>
-      <c r="F41" t="n">
-        <v>27.77360343933105</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="F41">
+        <v>27.77360153198242</v>
+      </c>
+      <c r="G41">
         <v>9200</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>0.0200647523264561</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>0.06132819771369421</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>0.5009524027506511</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>0.5009524027506511</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
         <v>41518</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>34.20000076293945</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>34.20000076293945</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>32.75</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>33.16999816894531</v>
       </c>
-      <c r="F42" t="n">
-        <v>29.22748565673828</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F42">
+        <v>29.22748756408691</v>
+      </c>
+      <c r="G42">
         <v>11100</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>0.05234764236100231</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>0.06084705273361003</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>0.4735672070934049</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>0.4735672070934049</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
         <v>41548</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>34.54999923706055</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>34.68000030517578</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>34.31000137329102</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>34.5</v>
       </c>
-      <c r="F43" t="n">
-        <v>30.39940643310547</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43">
+        <v>30.3994083404541</v>
+      </c>
+      <c r="G43">
         <v>34100</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>0.04009653013185499</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>0.06021440947959887</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>0.5394913090097158</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>0.5394913090097158</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:11">
+      <c r="A44" s="2">
         <v>41579</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>35.38999938964844</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>35.61000061035156</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>35.38999938964844</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>35.47999954223633</v>
       </c>
-      <c r="F44" t="n">
-        <v>31.2629222869873</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="F44">
+        <v>31.26293182373047</v>
+      </c>
+      <c r="G44">
         <v>10000</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>0.02840578383293701</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>0.05951081188823024</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>0.5033897868109591</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>0.5033897868109591</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
         <v>41609</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>35.72999954223633</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>35.9900016784668</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>35.52999877929688</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>35.84999847412109</v>
       </c>
-      <c r="F45" t="n">
-        <v>31.88551902770996</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="F45">
+        <v>31.88551330566406</v>
+      </c>
+      <c r="G45">
         <v>31600</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>0.01042838040187433</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>0.05880306433906766</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>0.4288560484693089</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>0.4288560484693089</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
         <v>41640</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>35.81999969482422</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>35.95999908447266</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>35.20000076293945</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>35.79000091552734</v>
       </c>
-      <c r="F46" t="n">
-        <v>31.83216094970703</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46">
+        <v>31.83215522766113</v>
+      </c>
+      <c r="G46">
         <v>73800</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>-0.001673572138003343</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>0.05817179960513353</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>0.3505660722840507</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>0.3505660722840507</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:11">
+      <c r="A47" s="2">
         <v>41671</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>40.70999908447266</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>41.11999893188477</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>40.59000015258789</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>40.95000076293945</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>36.42152786254883</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>51500</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>0.1441743424257211</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>0.06064790068046899</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>0.5166666949236836</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>0.5166666949236836</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:11">
+      <c r="A48" s="2">
         <v>41699</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>39.13999938964844</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>39.40000152587891</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>38.90000152587891</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>39.29000091552734</v>
       </c>
-      <c r="F48" t="n">
-        <v>34.94510269165039</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>34.94510650634766</v>
+      </c>
+      <c r="G48">
         <v>31100</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>-0.04053723605579129</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>0.06058428779111172</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>0.3819908720990925</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>0.3819908720990925</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:11">
+      <c r="A49" s="2">
         <v>41730</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>38</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>38.59000015258789</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>38</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>38.59000015258789</v>
       </c>
-      <c r="F49" t="n">
-        <v>34.32251358032227</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="F49">
+        <v>34.322509765625</v>
+      </c>
+      <c r="G49">
         <v>20700</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>-0.01781625723156488</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>0.0601314299619512</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>0.3488290572991251</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>0.3488290572991251</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
         <v>41760</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>37.09999847412109</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>37.20999908447266</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>37</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>37.11999893188477</v>
       </c>
-      <c r="F50" t="n">
-        <v>33.01507186889648</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="F50">
+        <v>33.01506805419922</v>
+      </c>
+      <c r="G50">
         <v>31000</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>-0.03809280162971296</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>0.05999503223800447</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>0.266894194486291</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>0.266894194486291</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
         <v>41791</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>35.79000091552734</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>36</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>35.65000152587891</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>35.81000137329102</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>32.16368865966797</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>167900</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>-0.03529088352070264</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>0.05979469177901468</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>0.2473006797362902</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>0.2473006797362902</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:11">
+      <c r="A52" s="2">
         <v>41821</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>34.93999862670898</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>34.93999862670898</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>34.63999938964844</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>34.65000152587891</v>
       </c>
-      <c r="F52" t="n">
-        <v>31.12180137634277</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="F52">
+        <v>31.12180519104004</v>
+      </c>
+      <c r="G52">
         <v>45300</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>-0.03239318075752151</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>0.0595388999192101</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>0.1213592865256805</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>0.1213592865256805</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:11">
+      <c r="A53" s="2">
         <v>41852</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>35.2599983215332</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>35.29999923706055</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>35.20000076293945</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>35.27000045776367</v>
       </c>
-      <c r="F53" t="n">
-        <v>31.67868041992188</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="F53">
+        <v>31.67867469787598</v>
+      </c>
+      <c r="G53">
         <v>13900</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>0.01789318627942071</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>0.05894489983664578</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>0.1189720794904474</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>0.1189720794904474</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:11">
+      <c r="A54" s="2">
         <v>41883</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>34.36000061035156</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>34.45999908447266</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>34.27000045776367</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>34.45000076293945</v>
       </c>
-      <c r="F54" t="n">
-        <v>30.94217872619629</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F54">
+        <v>30.94216918945312</v>
+      </c>
+      <c r="G54">
         <v>3400</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>-0.02324921134623115</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>0.05857848224145119</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>0.03858916685719072</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>0.03858916685719072</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:11">
+      <c r="A55" s="2">
         <v>41913</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>33.13999938964844</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>33.38000106811523</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>33.11000061035156</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>33.31999969482422</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>29.9272289276123</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>11500</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>-0.03280119138141979</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>0.05834028572340158</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>-0.03420290739639942</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>-0.03420290739639942</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:11">
+      <c r="A56" s="2">
         <v>41944</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>35.40999984741211</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>35.41999816894531</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>35.29999923706055</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>35.31000137329102</v>
       </c>
-      <c r="F56" t="n">
-        <v>31.7145938873291</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="F56">
+        <v>31.71460151672363</v>
+      </c>
+      <c r="G56">
         <v>6700</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>0.05972394047698359</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>0.05816162996834977</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>-0.004791380246297439</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>-0.004791380246297439</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:11">
+      <c r="A57" s="2">
         <v>41974</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>34.77999877929688</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>34.77999877929688</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>34.43000030517578</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>34.43000030517578</v>
       </c>
-      <c r="F57" t="n">
-        <v>31.31204986572266</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57">
+        <v>31.31205558776855</v>
+      </c>
+      <c r="G57">
         <v>3300</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>-0.02492214766043255</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>0.05783767101888988</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>-0.0396094345713951</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>-0.0396094345713951</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:11">
+      <c r="A58" s="2">
         <v>42005</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>34.20999908447266</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>34.29000091552734</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>33.81999969482422</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>33.90999984741211</v>
       </c>
-      <c r="F58" t="n">
-        <v>30.83914184570312</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="F58">
+        <v>30.83913993835449</v>
+      </c>
+      <c r="G58">
         <v>15700</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>-0.01510312091648458</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>0.05741988117690556</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>-0.05252866778496235</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>-0.05252866778496235</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:11">
+      <c r="A59" s="2">
         <v>42036</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>38.04000091552734</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>38.31000137329102</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>37.91999816894531</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>38.20000076293945</v>
       </c>
-      <c r="F59" t="n">
-        <v>34.74065399169922</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="F59">
+        <v>34.74064254760742</v>
+      </c>
+      <c r="G59">
         <v>15300</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>0.1265113811510306</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>0.05892388708077399</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>-0.06715506590390108</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>-0.06715506590390108</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:11">
+      <c r="A60" s="2">
         <v>42064</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>37.47000122070312</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>37.54000091552734</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>37.25</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>37.2599983215332</v>
       </c>
-      <c r="F60" t="n">
-        <v>33.88576889038086</v>
-      </c>
-      <c r="G60" t="n">
+      <c r="F60">
+        <v>33.88577270507812</v>
+      </c>
+      <c r="G60">
         <v>17400</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>-0.02460739326262562</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>0.05861401492330334</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>-0.05166715568061708</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>-0.05166715568061708</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:11">
+      <c r="A61" s="2">
         <v>42095</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>38.86999893188477</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>39.29999923706055</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>38.86999893188477</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>39.2599983215332</v>
       </c>
-      <c r="F61" t="n">
-        <v>35.70464706420898</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="F61">
+        <v>35.70465087890625</v>
+      </c>
+      <c r="G61">
         <v>45900</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>0.05367686768907243</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>0.05835410067323761</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>0.01736196336605556</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>0.01736196336605556</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:11">
+      <c r="A62" s="2">
         <v>42125</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>39.72999954223633</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>40.18999862670898</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>39.5</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>39.56000137329102</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>35.97748184204102</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>40700</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>0.007641443315937968</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>0.05786180139823387</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>0.06573282628277166</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>0.06573282628277166</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:11">
+      <c r="A63" s="2">
         <v>42156</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>39.5</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>39.61999893188477</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>39.0099983215332</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>39.08000183105469</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>35.93871307373047</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>43200</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>-0.01213345615706674</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>0.05746804753921218</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>0.09131528434407188</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>0.09131528434407188</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:11">
+      <c r="A64" s="2">
         <v>42186</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>40.97000122070312</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>41.15999984741211</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>40.72000122070312</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>41.11999893188477</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>37.81473541259766</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>46800</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>0.0522005374935528</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>0.05721621374326034</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>0.1867243036388797</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>0.1867243036388797</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:11">
+      <c r="A65" s="2">
         <v>42217</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>40.09999847412109</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>40.65000152587891</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>40.09999847412109</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>40.5099983215332</v>
       </c>
-      <c r="F65" t="n">
-        <v>37.25376892089844</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="F65">
+        <v>37.25375747680664</v>
+      </c>
+      <c r="G65">
         <v>19900</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>-0.01483464557871284</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>0.05686323003930272</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>0.1485681257658191</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>0.1485681257658191</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:11">
+      <c r="A66" s="2">
         <v>42248</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>38.70999908447266</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>38.93000030517578</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>38.52999877929688</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>38.93000030517578</v>
       </c>
-      <c r="F66" t="n">
-        <v>35.8007698059082</v>
-      </c>
-      <c r="G66" t="n">
+      <c r="F66">
+        <v>35.80076599121094</v>
+      </c>
+      <c r="G66">
         <v>39600</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>-0.03900266802819319</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>0.05678083892320962</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>0.1300435251965455</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>0.1300435251965455</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:11">
+      <c r="A67" s="2">
         <v>42278</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>39.27999877929688</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>39.70000076293945</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>39.27999877929688</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>39.43999862670898</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>36.26977920532227</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>47900</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>0.01310039346353142</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>0.05633565464375727</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>0.1836734390137291</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>0.1836734390137291</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:11">
+      <c r="A68" s="2">
         <v>42309</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>40.72000122070312</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>40.72000122070312</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>40.34999847412109</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>40.34999847412109</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>37.10662841796875</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>38900</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>0.02307301924690863</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>0.05591715926387855</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>0.1427356812464584</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>0.1427356812464584</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:11">
+      <c r="A69" s="2">
         <v>42339</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>41.72999954223633</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>41.95999908447266</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>41.52000045776367</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>41.56000137329102</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>38.45545959472656</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>73300</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>0.0299876814108424</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>0.05553449224818947</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>0.2070868720568497</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>0.2070868720568497</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:11">
+      <c r="A70" s="2">
         <v>42370</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>37.97000122070312</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>38.90999984741211</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>37.84999847412109</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>38.77999877929688</v>
       </c>
-      <c r="F70" t="n">
-        <v>35.88312911987305</v>
-      </c>
-      <c r="G70" t="n">
+      <c r="F70">
+        <v>35.88311386108398</v>
+      </c>
+      <c r="G70">
         <v>30600</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>-0.06689130178375646</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>0.05595216159685251</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>0.1436154218165362</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>0.1436154218165362</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:11">
+      <c r="A71" s="2">
         <v>42401</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>37.40000152587891</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>37.77000045776367</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>37.31000137329102</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>37.34999847412109</v>
       </c>
-      <c r="F71" t="n">
-        <v>34.55994415283203</v>
-      </c>
-      <c r="G71" t="n">
+      <c r="F71">
+        <v>34.5599479675293</v>
+      </c>
+      <c r="G71">
         <v>37000</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>-0.03687468669904148</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>0.05584110939987819</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>-0.02225136837282493</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>-0.02225136837282493</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:11">
+      <c r="A72" s="2">
         <v>42430</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>40.54000091552734</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>40.54000091552734</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>40.15000152587891</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>40.20000076293945</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>37.19704818725586</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>17200</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>0.07630528528115077</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>0.05598859454239455</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>0.07890506102645656</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>0.07890506102645656</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:11">
+      <c r="A73" s="2">
         <v>42461</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>39.7400016784668</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>40.11000061035156</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>39.7400016784668</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>39.9900016784668</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>37.00273513793945</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>36300</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>-0.005223857723561376</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>0.05562279886711916</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>0.01859407509279509</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>0.01859407509279509</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:11">
+      <c r="A74" s="2">
         <v>42491</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>41.31999969482422</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>41.31999969482422</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>40.58000183105469</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>40.68999862670898</v>
       </c>
-      <c r="F74" t="n">
-        <v>37.65044021606445</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="F74">
+        <v>37.65044403076172</v>
+      </c>
+      <c r="G74">
         <v>206700</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>0.01750429904630657</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>0.05523454460610845</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>0.02856413584911777</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>0.02856413584911777</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:11">
+      <c r="A75" s="2">
         <v>42522</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>35.27000045776367</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>35.97999954223633</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>35.16999816894531</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>35.93999862670898</v>
       </c>
-      <c r="F75" t="n">
-        <v>33.51103210449219</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="F75">
+        <v>33.51103591918945</v>
+      </c>
+      <c r="G75">
         <v>46700</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>-0.1167363027847853</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>0.05686245974422346</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>-0.08034808232405244</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>-0.08034808232405244</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:11">
+      <c r="A76" s="2">
         <v>42552</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>37.06999969482422</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>37.33000183105469</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>36.93000030517578</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>37.29999923706055</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>34.77912139892578</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>37000</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>0.03784086428264</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>0.05656680339936531</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>-0.09289882767633439</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>-0.09289882767633439</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:11">
+      <c r="A77" s="2">
         <v>42583</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>39</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>39</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>38.81999969482422</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>38.90999984741211</v>
       </c>
-      <c r="F77" t="n">
-        <v>36.28030776977539</v>
-      </c>
-      <c r="G77" t="n">
+      <c r="F77">
+        <v>36.28031158447266</v>
+      </c>
+      <c r="G77">
         <v>25000</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>0.04316355612018086</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>0.05631357475607229</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>-0.03949638460662708</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>-0.03949638460662708</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:11">
+      <c r="A78" s="2">
         <v>42614</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>37.81000137329102</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>38.13000106811523</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>37.65999984741211</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>38.0099983215332</v>
       </c>
-      <c r="F78" t="n">
-        <v>35.44113922119141</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="F78">
+        <v>35.44113159179688</v>
+      </c>
+      <c r="G78">
         <v>22800</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>-0.02313034000021374</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>0.05606937101516381</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>-0.02363221105652713</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>-0.02363221105652713</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:11">
+      <c r="A79" s="2">
         <v>42644</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>36.16999816894531</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>36.31000137329102</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>36.16999816894531</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>36.22000122070312</v>
       </c>
-      <c r="F79" t="n">
-        <v>33.77211380004883</v>
-      </c>
-      <c r="G79" t="n">
+      <c r="F79">
+        <v>33.77211761474609</v>
+      </c>
+      <c r="G79">
         <v>23900</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>-0.04709279610296691</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>0.05607811812912984</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>-0.08164293910054199</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>-0.08164293910054199</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:11">
+      <c r="A80" s="2">
         <v>42675</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>36.43999862670898</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>36.45000076293945</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>36.29000091552734</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>36.40000152587891</v>
       </c>
-      <c r="F80" t="n">
-        <v>33.93994903564453</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="F80">
+        <v>33.93994140625</v>
+      </c>
+      <c r="G80">
         <v>13800</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>0.004969638296778767</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>0.05571491018983239</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>-0.09789336053570263</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>-0.09789336053570263</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:11">
+      <c r="A81" s="2">
         <v>42705</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>37.59000015258789</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>37.79000091552734</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>37.47999954223633</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>37.52999877929688</v>
       </c>
-      <c r="F81" t="n">
-        <v>35.18487167358398</v>
-      </c>
-      <c r="G81" t="n">
+      <c r="F81">
+        <v>35.18486785888672</v>
+      </c>
+      <c r="G81">
         <v>19500</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>0.03104387928705399</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>0.05541107520382957</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>-0.09696829790251316</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>-0.09696829790251316</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:11">
+      <c r="A82" s="2">
         <v>42736</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>38.38999938964844</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>38.61000061035156</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>38.34999847412109</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>38.54999923706055</v>
       </c>
-      <c r="F82" t="n">
-        <v>36.14113616943359</v>
-      </c>
-      <c r="G82" t="n">
+      <c r="F82">
+        <v>36.14112854003906</v>
+      </c>
+      <c r="G82">
         <v>25400</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>0.02717827047536026</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>0.05509476290147739</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>-0.005930880595053423</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>-0.005930880595053423</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:11">
+      <c r="A83" s="2">
         <v>42767</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>39.31000137329102</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>39.31000137329102</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>39.09000015258789</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>39.20000076293945</v>
       </c>
-      <c r="F83" t="n">
-        <v>36.75052642822266</v>
-      </c>
-      <c r="G83" t="n">
+      <c r="F83">
+        <v>36.75052261352539</v>
+      </c>
+      <c r="G83">
         <v>7600</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>0.0168612591113626</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>0.05475510298478415</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>0.04953152247382775</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>0.04953152247382775</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:11">
+      <c r="A84" s="2">
         <v>42795</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>39.93999862670898</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>40.15999984741211</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>39.93000030517578</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>40.06000137329102</v>
       </c>
-      <c r="F84" t="n">
-        <v>37.55677795410156</v>
-      </c>
-      <c r="G84" t="n">
+      <c r="F84">
+        <v>37.55678558349609</v>
+      </c>
+      <c r="G84">
         <v>9700</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>0.02193879065340809</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>0.0544325714916633</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>-0.003482571815707658</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>-0.003482571815707658</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:11">
+      <c r="A85" s="2">
         <v>42826</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>42.15000152587891</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>42.20000076293945</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>42.11000061035156</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>42.15000152587891</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>39.51618194580078</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>8000</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>0.0521717444069123</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>0.05429782056560623</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>0.05401349729312943</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>0.05401349729312943</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:11">
+      <c r="A86" s="2">
         <v>42856</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>43.75</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>43.75</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>43.59000015258789</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>43.65000152587891</v>
       </c>
-      <c r="F86" t="n">
-        <v>40.92245483398438</v>
-      </c>
-      <c r="G86" t="n">
+      <c r="F86">
+        <v>40.92245101928711</v>
+      </c>
+      <c r="G86">
         <v>12000</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>0.03558718732380206</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>0.05403935002252157</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>0.07274521993291416</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>0.07274521993291416</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:11">
+      <c r="A87" s="2">
         <v>42887</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>43.54999923706055</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>43.68999862670898</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>43.27000045776367</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>43.54000091552734</v>
       </c>
-      <c r="F87" t="n">
-        <v>41.14296722412109</v>
-      </c>
-      <c r="G87" t="n">
+      <c r="F87">
+        <v>41.14296340942383</v>
+      </c>
+      <c r="G87">
         <v>5700</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>-0.002520059713774447</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>0.05373601744966013</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>0.2114636221263064</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>0.2114636221263064</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:11">
+      <c r="A88" s="2">
         <v>42917</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>43.63999938964844</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>43.93999862670898</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>43.56000137329102</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>43.93000030517578</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>41.51149368286133</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>7700</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>0.008957266454933777</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>0.05341928115127296</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>0.1777480215476197</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>0.1777480215476197</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:11">
+      <c r="A89" s="2">
         <v>42948</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>43.63999938964844</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>43.88999938964844</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>43.63999938964844</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>43.79999923706055</v>
       </c>
-      <c r="F89" t="n">
-        <v>41.38865661621094</v>
-      </c>
-      <c r="G89" t="n">
+      <c r="F89">
+        <v>41.38864898681641</v>
+      </c>
+      <c r="G89">
         <v>7400</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>-0.00295927765108428</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>0.05312762735143722</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>0.1256746185768405</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>0.1256746185768405</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:11">
+      <c r="A90" s="2">
         <v>42979</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>45.95000076293945</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>46.38000106811523</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>45.95000076293945</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>46.27999877929688</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>43.73212432861328</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>40700</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>0.05662099510124929</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>0.05305048478757068</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>0.2175743441977107</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>0.2175743441977107</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:11">
+      <c r="A91" s="2">
         <v>43009</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>46.41999816894531</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>46.59999847412109</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>46.41999816894531</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>46.52000045776367</v>
       </c>
-      <c r="F91" t="n">
-        <v>43.95890426635742</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="F91">
+        <v>43.95890808105469</v>
+      </c>
+      <c r="G91">
         <v>36300</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>0.005185861814978265</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>0.05275173725187267</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>0.2843732437858983</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>0.2843732437858983</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:11">
+      <c r="A92" s="2">
         <v>43040</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>46.58000183105469</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>46.61000061035156</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>46.33000183105469</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>46.33000183105469</v>
       </c>
-      <c r="F92" t="n">
-        <v>43.77936935424805</v>
-      </c>
-      <c r="G92" t="n">
+      <c r="F92">
+        <v>43.77936553955078</v>
+      </c>
+      <c r="G92">
         <v>8200</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>-0.004084235271697545</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>0.05247826562099832</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>0.2728021947503481</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>0.2728021947503481</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:11">
+      <c r="A93" s="2">
         <v>43070</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>48.18999862670898</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>48.36999893188477</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>47.79000091552734</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>47.9900016784668</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>45.67678451538086</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>5800</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>0.0358299111117113</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>0.05225226030479505</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>0.2787104513560523</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>0.2787104513560523</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:11">
+      <c r="A94" s="2">
         <v>43101</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>49.45000076293945</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>49.45000076293945</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>49.06000137329102</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>49.06000137329102</v>
       </c>
-      <c r="F94" t="n">
-        <v>46.69521331787109</v>
-      </c>
-      <c r="G94" t="n">
+      <c r="F94">
+        <v>46.69520568847656</v>
+      </c>
+      <c r="G94">
         <v>3100</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>0.02229630459263632</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>0.05197772637760187</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>0.272633005038468</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>0.272633005038468</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:11">
+      <c r="A95" s="2">
         <v>43132</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>46.77000045776367</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>46.77000045776367</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>45.93999862670898</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>46.09000015258789</v>
       </c>
-      <c r="F95" t="n">
-        <v>43.86837005615234</v>
-      </c>
-      <c r="G95" t="n">
+      <c r="F95">
+        <v>43.86836624145508</v>
+      </c>
+      <c r="G95">
         <v>125500</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>-0.06053813977918143</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>0.05222572363713343</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>0.1757652871313817</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>0.1757652871313817</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:11">
+      <c r="A96" s="2">
         <v>43160</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>46.79000091552734</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>47.02000045776367</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>46.52000045776367</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>46.72000122070312</v>
       </c>
-      <c r="F96" t="n">
-        <v>44.46800231933594</v>
-      </c>
-      <c r="G96" t="n">
+      <c r="F96">
+        <v>44.46799850463867</v>
+      </c>
+      <c r="G96">
         <v>6900</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>0.01366893178627726</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>0.05194531204530498</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>0.1662506145557072</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>0.1662506145557072</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:11">
+      <c r="A97" s="2">
         <v>43191</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>47.22000122070312</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>47.2599983215332</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>47.02999877929688</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>47.02999877929688</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>44.76305770874023</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>12500</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>0.006635221543110248</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>0.05166969783297841</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>0.115776917598017</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>0.115776917598017</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:11">
+      <c r="A98" s="2">
         <v>43221</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>48.2599983215332</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>48.47000122070312</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>48.08000183105469</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>48.45999908447266</v>
       </c>
-      <c r="F98" t="n">
-        <v>46.12412643432617</v>
-      </c>
-      <c r="G98" t="n">
+      <c r="F98">
+        <v>46.12413024902344</v>
+      </c>
+      <c r="G98">
         <v>10300</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>0.03040613102897383</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>0.0514378116025003</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>0.110194671029783</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>0.110194671029783</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:11">
+      <c r="A99" s="2">
         <v>43252</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>47.18000030517578</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>47.75</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>47.15000152587891</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>47.33000183105469</v>
       </c>
-      <c r="F99" t="n">
-        <v>45.4600830078125</v>
-      </c>
-      <c r="G99" t="n">
+      <c r="F99">
+        <v>45.46008682250977</v>
+      </c>
+      <c r="G99">
         <v>49600</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>-0.02331814434103108</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>0.05128463117555588</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>0.08704641331727081</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>0.08704641331727081</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:11">
+      <c r="A100" s="2">
         <v>43282</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>47.04999923706055</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>47.29999923706055</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>46.95999908447266</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>47.06999969482422</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>45.21035766601562</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>11700</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>-0.005493389524018011</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>0.0510442204903241</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>0.0714773359397971</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>0.0714773359397971</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:11">
+      <c r="A101" s="2">
         <v>43313</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>46.29999923706055</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>46.45000076293945</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>46.04000091552734</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>46.16999816894531</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>44.34590530395508</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>24200</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>-0.01912049143220773</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>0.05086762932063793</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>0.05410956559742219</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>0.05410956559742219</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:11">
+      <c r="A102" s="2">
         <v>43344</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>45.06999969482422</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>45.22999954223633</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>44.86999893188477</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>45.06999969482422</v>
       </c>
-      <c r="F102" t="n">
-        <v>43.28937149047852</v>
-      </c>
-      <c r="G102" t="n">
+      <c r="F102">
+        <v>43.28936767578125</v>
+      </c>
+      <c r="G102">
         <v>14700</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>-0.02382496248095956</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>0.05072129655863923</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>-0.02614518401875898</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>-0.02614518401875898</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:11">
+      <c r="A103" s="2">
         <v>43374</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>41.13999938964844</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>41.29000091552734</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>41.06000137329102</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>41.20999908447266</v>
       </c>
-      <c r="F103" t="n">
-        <v>39.58187103271484</v>
-      </c>
-      <c r="G103" t="n">
+      <c r="F103">
+        <v>39.58186721801758</v>
+      </c>
+      <c r="G103">
         <v>8400</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>-0.0856445670398982</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>0.05134573849320237</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>-0.1141444823955249</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>-0.1141444823955249</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:11">
+      <c r="A104" s="2">
         <v>43405</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>39.5</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>39.63000106811523</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>39.47000122070312</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>39.54999923706055</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>37.98745346069336</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>3000</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>-0.04028148226864614</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>0.05131844865654491</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>-0.1463415136204366</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>-0.1463415136204366</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:11">
+      <c r="A105" s="2">
         <v>43435</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>37.04000091552734</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>37.68999862670898</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>36.79999923706055</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>37.0099983215332</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>35.66614532470703</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>22300</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>-0.06422252754804658</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>0.0515596196374101</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>-0.2287977281288645</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>-0.2287977281288645</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:11">
+      <c r="A106" s="2">
         <v>43466</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>40.06000137329102</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>40.09000015258789</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>39.86000061035156</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>39.93999862670898</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>38.4897575378418</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>36700</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>0.07916780432467752</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>0.05179054374679448</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>-0.1858948734466831</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>-0.1858948734466831</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:11">
+      <c r="A107" s="2">
         <v>43497</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>41.45000076293945</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>41.86999893188477</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>41.40999984741211</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>41.4900016784668</v>
       </c>
-      <c r="F107" t="n">
-        <v>39.98347473144531</v>
-      </c>
-      <c r="G107" t="n">
+      <c r="F107">
+        <v>39.98347854614258</v>
+      </c>
+      <c r="G107">
         <v>13900</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>0.0388082900614144</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>0.05162866907989419</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>-0.09980469643940348</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>-0.09980469643940348</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:11">
+      <c r="A108" s="2">
         <v>43525</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>41.52999877929688</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>41.68999862670898</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>41.47999954223633</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>41.63000106811523</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>40.11839294433594</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>4200</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>0.003374292214625152</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>0.05138443551163233</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>-0.1089469182276551</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>-0.1089469182276551</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:11">
+      <c r="A109" s="2">
         <v>43556</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>43.2599983215332</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>43.29999923706055</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>43.02999877929688</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>43.22999954223633</v>
       </c>
-      <c r="F109" t="n">
-        <v>41.66029739379883</v>
-      </c>
-      <c r="G109" t="n">
+      <c r="F109">
+        <v>41.66029357910156</v>
+      </c>
+      <c r="G109">
         <v>31300</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>0.03843378412369414</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>0.05122477253576981</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>-0.0807994755622522</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>-0.0807994755622522</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:11">
+      <c r="A110" s="2">
         <v>43586</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>41</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>41.2400016784668</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>40.90000152587891</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>41.2400016784668</v>
       </c>
-      <c r="F110" t="n">
-        <v>39.74254989624023</v>
-      </c>
-      <c r="G110" t="n">
+      <c r="F110">
+        <v>39.74255752563477</v>
+      </c>
+      <c r="G110">
         <v>9500</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>-0.04603279863154464</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>0.05125428253565142</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>-0.1489888060753031</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110">
         <v>-0.1489888060753031</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:11">
+      <c r="A111" s="2">
         <v>43617</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>41.59999847412109</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>41.7599983215332</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>41.54000091552734</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>41.61000061035156</v>
       </c>
-      <c r="F111" t="n">
-        <v>40.63307189941406</v>
-      </c>
-      <c r="G111" t="n">
+      <c r="F111">
+        <v>40.63307952880859</v>
+      </c>
+      <c r="G111">
         <v>19900</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>0.008971845703826808</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>0.05101652610683304</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>-0.1208536023539736</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>-0.1208536023539736</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:11">
+      <c r="A112" s="2">
         <v>43647</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>41.20000076293945</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>41.20000076293945</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>40.34999847412109</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>40.47999954223633</v>
       </c>
-      <c r="F112" t="n">
-        <v>39.52960586547852</v>
-      </c>
-      <c r="G112" t="n">
+      <c r="F112">
+        <v>39.52960968017578</v>
+      </c>
+      <c r="G112">
         <v>71100</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>-0.02715695870079171</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>0.05089257817335059</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>-0.1400042531402974</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112">
         <v>-0.1400042531402974</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:11">
+      <c r="A113" s="2">
         <v>43678</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>39.72999954223633</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>39.72999954223633</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>39.4900016784668</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>39.59000015258789</v>
       </c>
-      <c r="F113" t="n">
-        <v>38.66050720214844</v>
-      </c>
-      <c r="G113" t="n">
+      <c r="F113">
+        <v>38.66050338745117</v>
+      </c>
+      <c r="G113">
         <v>6200</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>-0.0219861511786783</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>0.05073899563889218</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>-0.142516748479822</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>-0.142516748479822</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:11">
+      <c r="A114" s="2">
         <v>43709</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>41.04999923706055</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>41.11000061035156</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>40.95999908447266</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>40.95999908447266</v>
       </c>
-      <c r="F114" t="n">
-        <v>39.99833297729492</v>
-      </c>
-      <c r="G114" t="n">
+      <c r="F114">
+        <v>39.99833679199219</v>
+      </c>
+      <c r="G114">
         <v>2500</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>0.03460467104330678</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>0.0505751585020204</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>-0.09119149407989791</v>
       </c>
-      <c r="K114" t="n">
+      <c r="K114">
         <v>-0.09119149407989791</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:11">
+      <c r="A115" s="2">
         <v>43739</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>43.34000015258789</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>43.41999816894531</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>43.02000045776367</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>43.15000152587891</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>42.13692092895508</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>36800</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>0.05346685767472215</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>0.05053284590311348</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>0.04707601272762996</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115">
         <v>0.04707601272762996</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:11">
+      <c r="A116" s="2">
         <v>43770</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>45.0099983215332</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>45.02000045776367</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>45.0099983215332</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>45.02000045776367</v>
       </c>
-      <c r="F116" t="n">
-        <v>43.96302032470703</v>
-      </c>
-      <c r="G116" t="n">
+      <c r="F116">
+        <v>43.96301651000977</v>
+      </c>
+      <c r="G116">
         <v>2000</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>0.04333716954246802</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>0.0504170301927887</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>0.138305975378564</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>0.138305975378564</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:11">
+      <c r="A117" s="2">
         <v>43800</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>45.95999908447266</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>46.4900016784668</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>45.90999984741211</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>46.36999893188477</v>
       </c>
-      <c r="F117" t="n">
-        <v>45.70044708251953</v>
-      </c>
-      <c r="G117" t="n">
+      <c r="F117">
+        <v>45.70044326782227</v>
+      </c>
+      <c r="G117">
         <v>13600</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>0.02998663839169935</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>0.05023581575103658</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>0.2529046483340616</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>0.2529046483340616</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:11">
+      <c r="A118" s="2">
         <v>43831</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>44.54999923706055</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>44.58000183105469</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>44.38999938964844</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>44.40999984741211</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>43.76874923706055</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>7000</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>-0.04226868944620421</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>0.05023919146388991</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>0.1119179112268149</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>0.1119179112268149</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:11">
+      <c r="A119" s="2">
         <v>43862</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>40.25</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>40.84000015258789</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>40.06999969482422</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>40.61999893188477</v>
       </c>
-      <c r="F119" t="n">
-        <v>40.03347015380859</v>
-      </c>
-      <c r="G119" t="n">
+      <c r="F119">
+        <v>40.03346633911133</v>
+      </c>
+      <c r="G119">
         <v>14300</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>-0.08534116029158678</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>0.05076317784474133</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>-0.02096897352100036</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>-0.02096897352100036</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:11">
+      <c r="A120" s="2">
         <v>43891</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>30.88999938964844</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>31.79999923706055</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>30.88999938964844</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>31.43000030517578</v>
       </c>
-      <c r="F120" t="n">
-        <v>30.97616958618164</v>
-      </c>
-      <c r="G120" t="n">
+      <c r="F120">
+        <v>30.97617149353027</v>
+      </c>
+      <c r="G120">
         <v>15300</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>-0.2262432020768783</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>0.05492943532398638</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>-0.2450156257803154</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K120">
         <v>-0.2450156257803154</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:11">
+      <c r="A121" s="2">
         <v>43922</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>34.40000152587891</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>34.86000061035156</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>34.40000152587891</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>34.65999984741211</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>34.15953063964844</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>13900</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>0.1027680404350624</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>0.05542032260594999</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>-0.198241956640578</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>-0.198241956640578</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:11">
+      <c r="A122" s="2">
         <v>43952</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>36.68999862670898</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>36.84000015258789</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>36.5</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>36.84000015258789</v>
       </c>
-      <c r="F122" t="n">
-        <v>36.30805587768555</v>
-      </c>
-      <c r="G122" t="n">
+      <c r="F122">
+        <v>36.30805206298828</v>
+      </c>
+      <c r="G122">
         <v>4700</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>0.06289671998768198</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122">
         <v>0.05542935081872282</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122">
         <v>-0.1066925641803826</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K122">
         <v>-0.1066925641803826</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:11">
+      <c r="A123" s="2">
         <v>43983</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>37.43999862670898</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>37.90999984741211</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>37.43999862670898</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>37.84999847412109</v>
       </c>
-      <c r="F123" t="n">
-        <v>37.5408935546875</v>
-      </c>
-      <c r="G123" t="n">
+      <c r="F123">
+        <v>37.54088973999023</v>
+      </c>
+      <c r="G123">
         <v>3200</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>0.02741580665987731</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123">
         <v>0.05524454346684812</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123">
         <v>-0.09036294354908203</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K123">
         <v>-0.09036294354908203</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:11">
+      <c r="A124" s="2">
         <v>44013</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>41.09999847412109</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>41.09999847412109</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>39.91999816894531</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>40.02000045776367</v>
       </c>
-      <c r="F124" t="n">
-        <v>39.69317626953125</v>
-      </c>
-      <c r="G124" t="n">
+      <c r="F124">
+        <v>39.69317245483398</v>
+      </c>
+      <c r="G124">
         <v>5300</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>0.0573316267139683</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124">
         <v>0.05474695461955498</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124">
         <v>-0.01136361387535834</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124">
         <v>-0.01136361387535834</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:11">
+      <c r="A125" s="2">
         <v>44044</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>42.58000183105469</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>42.58000183105469</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>42.45000076293945</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>42.45000076293945</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>42.10332870483398</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>4300</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>0.0607196471109579</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125">
         <v>0.05403461666759232</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125">
         <v>0.07224047990221116</v>
       </c>
-      <c r="K125" t="n">
+      <c r="K125">
         <v>0.07224047990221116</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:11">
+      <c r="A126" s="2">
         <v>44075</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>40.52999877929688</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>40.77000045776367</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>40.06000137329102</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>40.06000137329102</v>
       </c>
-      <c r="F126" t="n">
-        <v>39.73284530639648</v>
-      </c>
-      <c r="G126" t="n">
+      <c r="F126">
+        <v>39.73284912109375</v>
+      </c>
+      <c r="G126">
         <v>29900</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>-0.05630151582317522</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126">
         <v>0.05412979541747887</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126">
         <v>-0.02197260086177144</v>
       </c>
-      <c r="K126" t="n">
+      <c r="K126">
         <v>-0.02197260086177144</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:11">
+      <c r="A127" s="2">
         <v>44105</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>41.22999954223633</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>41.22999954223633</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>40.79000091552734</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>40.9900016784668</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>40.65525054931641</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>3700</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>0.02321518405627998</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127">
         <v>0.05410787530460166</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127">
         <v>-0.05005793212119969</v>
       </c>
-      <c r="K127" t="n">
+      <c r="K127">
         <v>-0.05005793212119969</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:11">
+      <c r="A128" s="2">
         <v>44136</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>47.91999816894531</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>47.91999816894531</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>47.29999923706055</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>47.36999893188477</v>
       </c>
-      <c r="F128" t="n">
-        <v>46.98314666748047</v>
-      </c>
-      <c r="G128" t="n">
+      <c r="F128">
+        <v>46.98315048217773</v>
+      </c>
+      <c r="G128">
         <v>13600</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>0.155647645576203</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128">
         <v>0.05501552866951228</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128">
         <v>0.05219898823248093</v>
       </c>
-      <c r="K128" t="n">
+      <c r="K128">
         <v>0.05219898823248093</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:11">
+      <c r="A129" s="2">
         <v>44166</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>50.81999969482422</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>50.91999816894531</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>50.08000183105469</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>50.5</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>50.09989547729492</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>16900</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>0.06607559929684581</v>
       </c>
-      <c r="I129" t="n">
+      <c r="I129">
         <v>0.05483292145761745</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129">
         <v>0.0890662316853188</v>
       </c>
-      <c r="K129" t="n">
+      <c r="K129">
         <v>0.0890662316853188</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:11">
+      <c r="A130" s="2">
         <v>44197</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>48.7400016784668</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>48.7400016784668</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>48.15000152587891</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>48.22000122070312</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>47.83796310424805</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>9700</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>-0.04514849067914606</v>
       </c>
-      <c r="I130" t="n">
+      <c r="I130">
         <v>0.05505610501255816</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130">
         <v>0.08579151962129616</v>
       </c>
-      <c r="K130" t="n">
+      <c r="K130">
         <v>0.08579151962129616</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:11">
+      <c r="A131" s="2">
         <v>44228</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>51.31000137329102</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>51.31999969482422</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>50.93999862670898</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>51.08000183105469</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>50.6753044128418</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>7300</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>0.05931150016486586</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I131">
         <v>0.05498043599863561</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131">
         <v>0.2575086945893372</v>
       </c>
-      <c r="K131" t="n">
+      <c r="K131">
         <v>0.2575086945893372</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:11">
+      <c r="A132" s="2">
         <v>44256</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>55.22999954223633</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>55.43000030517578</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>54.66999816894531</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>55.02000045776367</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>54.58408737182617</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>19200</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>0.07713387794582283</v>
       </c>
-      <c r="I132" t="n">
+      <c r="I132">
         <v>0.05520554944301461</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132">
         <v>0.7505567904402206</v>
       </c>
-      <c r="K132" t="n">
+      <c r="K132">
         <v>0.7505567904402206</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:11">
+      <c r="A133" s="2">
         <v>44287</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>58.2400016784668</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>58.34999847412109</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>57.72999954223633</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>57.79000091552734</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>57.3321418762207</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>27100</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133">
         <v>0.05034533687236298</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I133">
         <v>0.05454458731819973</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133">
         <v>0.6673399068073635</v>
       </c>
-      <c r="K133" t="n">
+      <c r="K133">
         <v>0.6673399068073635</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:11">
+      <c r="A134" s="2">
         <v>44317</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>60.43000030517578</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>60.52999877929688</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>60.02000045776367</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>60.02999877929688</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>59.55438995361328</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>5100</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>0.03876099374083375</v>
       </c>
-      <c r="I134" t="n">
+      <c r="I134">
         <v>0.05449927860652663</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134">
         <v>0.6294787874771484</v>
       </c>
-      <c r="K134" t="n">
+      <c r="K134">
         <v>0.6294787874771484</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:11">
+      <c r="A135" s="2">
         <v>44348</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>57.40000152587891</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>57.90999984741211</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>57.16999816894531</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>57.41999816894531</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>57.28400421142578</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>8100</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>-0.04347827192113318</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I135">
         <v>0.05465729957513724</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135">
         <v>0.5170409639039926</v>
       </c>
-      <c r="K135" t="n">
+      <c r="K135">
         <v>0.5170409639039926</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:11">
+      <c r="A136" s="2">
         <v>44378</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>58.41999816894531</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>58.52999877929688</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>58.27000045776367</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>58.27000045776367</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>58.13199615478516</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>16000</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136">
         <v>0.01480324479142991</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I136">
         <v>0.0543350053399814</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136">
         <v>0.4560219837893478</v>
       </c>
-      <c r="K136" t="n">
+      <c r="K136">
         <v>0.4560219837893478</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:11">
+      <c r="A137" s="2">
         <v>44409</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>61.7599983215332</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>61.95999908447266</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>61.41999816894531</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>61.72000122070312</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>61.57382583618164</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>19100</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137">
         <v>0.05920715180773239</v>
       </c>
-      <c r="I137" t="n">
+      <c r="I137">
         <v>0.05386767465963079</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137">
         <v>0.4539458212351117</v>
       </c>
-      <c r="K137" t="n">
+      <c r="K137">
         <v>0.4539458212351117</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:11">
+      <c r="A138" s="2">
         <v>44440</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>58.66999816894531</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>59</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>57.84000015258789</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>58.18999862670898</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>58.05218124389648</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>35000</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H138">
         <v>-0.05719381925109313</v>
       </c>
-      <c r="I138" t="n">
+      <c r="I138">
         <v>0.05364736673659212</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138">
         <v>0.4525710592088417</v>
       </c>
-      <c r="K138" t="n">
+      <c r="K138">
         <v>0.4525710592088417</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:11">
+      <c r="A139" s="2">
         <v>44470</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>59.06999969482422</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>59.20000076293945</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>59.06999969482422</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>59.20000076293945</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>59.05979156494141</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>1500</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139">
         <v>0.01735697130205605</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I139">
         <v>0.05284303510374012</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139">
         <v>0.44425465574057</v>
       </c>
-      <c r="K139" t="n">
+      <c r="K139">
         <v>0.44425465574057</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:11">
+      <c r="A140" s="2">
         <v>44501</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>52.90000152587891</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>52.90000152587891</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>52.0099983215332</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>52.40999984741211</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>52.28587341308594</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>31200</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140">
         <v>-0.1146959599327917</v>
       </c>
-      <c r="I140" t="n">
+      <c r="I140">
         <v>0.05382831155258433</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140">
         <v>0.1063964751777715</v>
       </c>
-      <c r="K140" t="n">
+      <c r="K140">
         <v>0.1063964751777715</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:11">
+      <c r="A141" s="2">
         <v>44531</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>57</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>57.15000152587891</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>56.81000137329102</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>56.97000122070312</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>56.97000122070312</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>16500</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H141">
         <v>0.08700632296445576</v>
       </c>
-      <c r="I141" t="n">
+      <c r="I141">
         <v>0.054260312857303</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141">
         <v>0.1281188360535273</v>
       </c>
-      <c r="K141" t="n">
+      <c r="K141">
         <v>0.1281188360535273</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:11">
+      <c r="A142" s="2">
         <v>44562</v>
       </c>
-      <c r="B142" t="n">
-        <v>57.90999984741211</v>
-      </c>
-      <c r="C142" t="n">
-        <v>57.93999862670898</v>
-      </c>
-      <c r="D142" t="n">
-        <v>57.90999984741211</v>
-      </c>
-      <c r="E142" t="n">
-        <v>57.93999862670898</v>
-      </c>
-      <c r="F142" t="n">
-        <v>57.93999862670898</v>
-      </c>
-      <c r="G142" t="n">
-        <v>916</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.01702645928070234</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.0540969742327826</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.2015760506001938</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.2015760506001938</v>
+      <c r="B142">
+        <v>57.45000076293945</v>
+      </c>
+      <c r="C142">
+        <v>56.38000106811523</v>
+      </c>
+      <c r="D142">
+        <v>56.38000106811523</v>
+      </c>
+      <c r="E142">
+        <v>56.38000106811523</v>
+      </c>
+      <c r="F142">
+        <v>56.38000106811523</v>
+      </c>
+      <c r="G142">
+        <v>523</v>
+      </c>
+      <c r="H142">
+        <v>-0.01035633034835681</v>
+      </c>
+      <c r="I142">
+        <v>0.05412633690483224</v>
+      </c>
+      <c r="J142">
+        <v>0.1692243807722809</v>
+      </c>
+      <c r="K142">
+        <v>0.1692243807722809</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>